--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_3_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_3_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1503342.749082984</v>
+        <v>-1504040.269499614</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>817932.5232506148</v>
+        <v>817932.5232506141</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681854</v>
+        <v>590120.9651681859</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>80.17314072887103</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>80.17314072887103</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="G2" t="n">
-        <v>70.6165023539896</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H2" t="n">
         <v>80.17314072887103</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>80.17314072887103</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.46787346961785</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>80.17314072887103</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,70 +738,70 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>80.17314072887103</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>70.6165023539896</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>80.17314072887103</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>70.6165023539896</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="X3" t="n">
         <v>80.17314072887103</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.56684518386626</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>4.204876319055761</v>
+      </c>
+      <c r="U4" t="n">
         <v>80.17314072887103</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
-        <v>80.17314072887103</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>80.17314072887103</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>80.17314072887103</v>
       </c>
       <c r="F5" t="n">
         <v>7.293863480540836</v>
       </c>
       <c r="G5" t="n">
-        <v>62.66336173888634</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>80.17314072887103</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>80.17314072887103</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>47.80859633505546</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>80.17314072887103</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>80.17314072887103</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>80.17314072887103</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>80.17314072887103</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.17314072887103</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>70.6165023539896</v>
       </c>
       <c r="S6" t="n">
-        <v>80.17314072887103</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>70.6165023539896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>18.56684518386627</v>
+        <v>80.17314072887103</v>
       </c>
       <c r="T7" t="n">
-        <v>80.17314072887103</v>
+        <v>4.204876319055765</v>
       </c>
       <c r="U7" t="n">
-        <v>80.17314072887103</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>226.0751349680899</v>
       </c>
       <c r="F8" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="G8" t="n">
+        <v>14.85476540383092</v>
+      </c>
+      <c r="H8" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="H8" t="n">
-        <v>168.1385771445223</v>
-      </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>114.7736570458744</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>9.812355644387861</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>11.57657371040603</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>164.138716923775</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.9997892828913</v>
       </c>
       <c r="D11" t="n">
-        <v>231.619426358547</v>
+        <v>231.6194263585471</v>
       </c>
       <c r="E11" t="n">
         <v>258.1327293592361</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>282.3085570844895</v>
       </c>
       <c r="G11" t="n">
-        <v>125.7148493963485</v>
+        <v>289.4858117321751</v>
       </c>
       <c r="H11" t="n">
-        <v>209.2295693308178</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.44843987933147</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>96.30039485141043</v>
+        <v>64.01538805020917</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>126.4617653984447</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>245.876292735118</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>261.7017653551844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.38681921429347</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
         <v>171.025583927401</v>
@@ -1455,16 +1455,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>47.75752589541312</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>18.52092568749794</v>
+        <v>18.52092568749796</v>
       </c>
       <c r="G12" t="n">
-        <v>135.8179408160243</v>
+        <v>10.832634419973</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>16.70939858429055</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>81.95027155521966</v>
       </c>
       <c r="S12" t="n">
-        <v>40.16351863901758</v>
+        <v>40.16351863901761</v>
       </c>
       <c r="T12" t="n">
-        <v>72.56984582578076</v>
+        <v>72.56984582578079</v>
       </c>
       <c r="U12" t="n">
-        <v>99.65836610608289</v>
+        <v>99.65836610608292</v>
       </c>
       <c r="V12" t="n">
-        <v>231.9087310396551</v>
+        <v>106.9234246436038</v>
       </c>
       <c r="W12" t="n">
-        <v>125.0040403539487</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>79.47632321242691</v>
+        <v>79.47632321242693</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>78.68584502253469</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55.09838509463245</v>
+        <v>55.09838509463248</v>
       </c>
       <c r="C13" t="n">
-        <v>42.35124653515098</v>
+        <v>42.35124653515101</v>
       </c>
       <c r="D13" t="n">
-        <v>21.63401243810958</v>
+        <v>24.02026011846803</v>
       </c>
       <c r="E13" t="n">
-        <v>21.98931777714782</v>
+        <v>21.98931777714785</v>
       </c>
       <c r="F13" t="n">
-        <v>21.17371501375314</v>
+        <v>21.17371501375317</v>
       </c>
       <c r="G13" t="n">
-        <v>42.7321915737497</v>
+        <v>42.73219157374973</v>
       </c>
       <c r="H13" t="n">
-        <v>35.11872052940865</v>
+        <v>35.11872052940868</v>
       </c>
       <c r="I13" t="n">
-        <v>23.59799588593802</v>
+        <v>21.21174820557841</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.66800591301786</v>
+        <v>40.66800591301789</v>
       </c>
       <c r="S13" t="n">
-        <v>94.37302446620276</v>
+        <v>94.37302446620279</v>
       </c>
       <c r="T13" t="n">
         <v>102.6118618559628</v>
@@ -1594,7 +1594,7 @@
         <v>101.1550535362579</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.76336747171686</v>
+        <v>93.76336747171689</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>258.7311035953437</v>
       </c>
       <c r="C14" t="n">
-        <v>103.276609672641</v>
+        <v>241.9997892828912</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>282.3085570844895</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>289.4858117321751</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.44843987933149</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>72.13728303465111</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>96.30039485141045</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>126.4617653984447</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>203.547915126468</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>225.5448106045032</v>
+        <v>86.67504133697308</v>
       </c>
       <c r="X14" t="n">
-        <v>245.876292735118</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>261.7017653551844</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40.38681921429347</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
@@ -1692,19 +1692,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>31.04812731112247</v>
+        <v>31.04812731112243</v>
       </c>
       <c r="F15" t="n">
-        <v>18.52092568749794</v>
+        <v>18.52092568749789</v>
       </c>
       <c r="G15" t="n">
-        <v>135.8179408160243</v>
+        <v>10.83263441997292</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>79.43615441375566</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>40.16351863901758</v>
+        <v>165.1488250350689</v>
       </c>
       <c r="T15" t="n">
-        <v>151.8193856357847</v>
+        <v>197.5551522218321</v>
       </c>
       <c r="U15" t="n">
-        <v>99.65836610608289</v>
+        <v>99.65836610608285</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>106.9234246436037</v>
       </c>
       <c r="W15" t="n">
-        <v>125.0040403539487</v>
+        <v>158.7044281816567</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.71213741427387</v>
+        <v>55.09838509463241</v>
       </c>
       <c r="C16" t="n">
-        <v>42.35124653515098</v>
+        <v>42.35124653515093</v>
       </c>
       <c r="D16" t="n">
-        <v>24.020260118468</v>
+        <v>24.02026011846796</v>
       </c>
       <c r="E16" t="n">
-        <v>21.98931777714782</v>
+        <v>21.98931777714778</v>
       </c>
       <c r="F16" t="n">
-        <v>21.17371501375314</v>
+        <v>21.1737150137531</v>
       </c>
       <c r="G16" t="n">
-        <v>42.7321915737497</v>
+        <v>42.73219157374966</v>
       </c>
       <c r="H16" t="n">
-        <v>35.11872052940866</v>
+        <v>35.11872052940862</v>
       </c>
       <c r="I16" t="n">
-        <v>23.59799588593802</v>
+        <v>23.59799588593798</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.66800591301786</v>
+        <v>40.66800591301782</v>
       </c>
       <c r="S16" t="n">
-        <v>94.37302446620276</v>
+        <v>94.37302446620272</v>
       </c>
       <c r="T16" t="n">
         <v>102.6118618559627</v>
       </c>
       <c r="U16" t="n">
-        <v>161.0575772153598</v>
+        <v>158.671329535002</v>
       </c>
       <c r="V16" t="n">
         <v>127.9510446708878</v>
       </c>
       <c r="W16" t="n">
-        <v>161.1072704913642</v>
+        <v>161.1072704913641</v>
       </c>
       <c r="X16" t="n">
         <v>101.1550535362579</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.76336747171686</v>
+        <v>93.76336747171682</v>
       </c>
     </row>
     <row r="17">
@@ -1923,25 +1923,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>81.8501333150484</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8179408160243</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>40.22781350376563</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>79.43615441375566</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>133.2133626355292</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.5248296400815</v>
+        <v>6.311467004552314</v>
       </c>
       <c r="U19" t="n">
         <v>64.75718236394931</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>30.16137054703427</v>
+        <v>30.16137054703356</v>
       </c>
       <c r="V20" t="n">
         <v>107.2475202750576</v>
@@ -2172,13 +2172,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.8179408160243</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>79.43615441375566</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>6.95414002645929</v>
+        <v>12.98574604414178</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>10.62302979219334</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>133.2133626355292</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.2133626355292</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>6.311467004552314</v>
@@ -2400,13 +2400,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>153.0665636011048</v>
+        <v>224.6436725021343</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>157.7254306475294</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>76.6720140340738</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>64.80687563995374</v>
       </c>
       <c r="X25" t="n">
-        <v>138.0680213203767</v>
+        <v>4.854658684847465</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>56.54134860145545</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>257.6483813076785</v>
       </c>
       <c r="G26" t="n">
-        <v>264.8256359553642</v>
+        <v>264.8256359553641</v>
       </c>
       <c r="H26" t="n">
         <v>184.5693935540068</v>
       </c>
       <c r="I26" t="n">
-        <v>40.78826410252054</v>
+        <v>40.78826410252051</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.47710725784017</v>
+        <v>47.47710725784015</v>
       </c>
       <c r="T26" t="n">
-        <v>71.64021907459949</v>
+        <v>71.64021907459946</v>
       </c>
       <c r="U26" t="n">
-        <v>101.8015896216338</v>
+        <v>101.8015896216337</v>
       </c>
       <c r="V26" t="n">
         <v>178.887739349657</v>
@@ -2646,13 +2646,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.8179408160243</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>108.4800453703011</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>40.17397711201345</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>81.95027155521966</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>15.50334286220664</v>
+        <v>15.50334286220661</v>
       </c>
       <c r="T27" t="n">
-        <v>47.90967004896982</v>
+        <v>47.90967004896979</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6436725021343</v>
+        <v>74.99819032927192</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>82.26324886679279</v>
       </c>
       <c r="W27" t="n">
         <v>249.98934675</v>
@@ -2700,7 +2700,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>106.9018788159804</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.4382093178215</v>
+        <v>30.43820931782147</v>
       </c>
       <c r="C28" t="n">
-        <v>17.69107075834003</v>
+        <v>17.69107075834</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.07201579693876</v>
+        <v>18.07201579693873</v>
       </c>
       <c r="H28" t="n">
-        <v>10.45854475259772</v>
+        <v>10.45854475259769</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>16.00783013620692</v>
+        <v>16.00783013620689</v>
       </c>
       <c r="S28" t="n">
-        <v>69.71284868939182</v>
+        <v>69.71284868939179</v>
       </c>
       <c r="T28" t="n">
-        <v>77.9516860791518</v>
+        <v>77.95168607915177</v>
       </c>
       <c r="U28" t="n">
         <v>136.3974014385488</v>
       </c>
       <c r="V28" t="n">
-        <v>103.2908688940769</v>
+        <v>103.2908688940768</v>
       </c>
       <c r="W28" t="n">
         <v>136.4470947145532</v>
       </c>
       <c r="X28" t="n">
-        <v>76.49487775944695</v>
+        <v>76.49487775944692</v>
       </c>
       <c r="Y28" t="n">
-        <v>69.10319169490592</v>
+        <v>69.10319169490589</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>257.6483813076785</v>
       </c>
       <c r="G29" t="n">
-        <v>264.8256359553641</v>
+        <v>264.8256359553642</v>
       </c>
       <c r="H29" t="n">
         <v>184.5693935540068</v>
@@ -2883,7 +2883,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>134.8264811254764</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>47.90967004896982</v>
       </c>
       <c r="U30" t="n">
-        <v>209.8246714547485</v>
+        <v>74.99819032927195</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>182.9140583085076</v>
+        <v>182.9140583085075</v>
       </c>
       <c r="C32" t="n">
-        <v>166.1827439960552</v>
+        <v>166.1827439960551</v>
       </c>
       <c r="D32" t="n">
-        <v>155.8023810717109</v>
+        <v>155.8023810717108</v>
       </c>
       <c r="E32" t="n">
-        <v>182.3156840724</v>
+        <v>182.3156840723999</v>
       </c>
       <c r="F32" t="n">
-        <v>206.4915117976534</v>
+        <v>206.4915117976533</v>
       </c>
       <c r="G32" t="n">
-        <v>213.668766445339</v>
+        <v>213.6687664453389</v>
       </c>
       <c r="H32" t="n">
-        <v>133.4125240439817</v>
+        <v>133.4125240439816</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>20.48334956457433</v>
+        <v>20.48334956457421</v>
       </c>
       <c r="U32" t="n">
-        <v>50.64472011160859</v>
+        <v>50.64472011160848</v>
       </c>
       <c r="V32" t="n">
-        <v>127.7308698396319</v>
+        <v>127.7308698396318</v>
       </c>
       <c r="W32" t="n">
-        <v>149.7277653176671</v>
+        <v>149.727765317667</v>
       </c>
       <c r="X32" t="n">
-        <v>170.0592474482819</v>
+        <v>170.0592474482818</v>
       </c>
       <c r="Y32" t="n">
-        <v>185.8847200683483</v>
+        <v>185.8847200683482</v>
       </c>
     </row>
     <row r="33">
@@ -3120,13 +3120,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>48.59401186379099</v>
+        <v>126.9106636865771</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>79.43615441375566</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,22 +3153,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>81.95027155521966</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.1488250350689</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5551522218321</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6436725021343</v>
+        <v>23.84132081924667</v>
       </c>
       <c r="V33" t="n">
-        <v>231.9087310396551</v>
+        <v>31.10637935676755</v>
       </c>
       <c r="W33" t="n">
-        <v>249.98934675</v>
+        <v>49.18699506711246</v>
       </c>
       <c r="X33" t="n">
         <v>204.4616296084783</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.55597917936665</v>
+        <v>18.55597917936654</v>
       </c>
       <c r="T34" t="n">
-        <v>26.79481656912664</v>
+        <v>26.79481656912652</v>
       </c>
       <c r="U34" t="n">
-        <v>85.24053192852364</v>
+        <v>85.24053192852352</v>
       </c>
       <c r="V34" t="n">
-        <v>52.13399938405169</v>
+        <v>52.13399938405158</v>
       </c>
       <c r="W34" t="n">
-        <v>85.29022520452807</v>
+        <v>85.29022520452796</v>
       </c>
       <c r="X34" t="n">
-        <v>25.33800824942179</v>
+        <v>25.33800824942168</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.94632218488076</v>
+        <v>17.94632218488064</v>
       </c>
     </row>
     <row r="35">
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>20.48334956457424</v>
+        <v>20.48334956457421</v>
       </c>
       <c r="U35" t="n">
-        <v>50.64472011160851</v>
+        <v>50.64472011160848</v>
       </c>
       <c r="V35" t="n">
         <v>127.7308698396318</v>
@@ -3332,7 +3332,7 @@
         <v>170.0592474482818</v>
       </c>
       <c r="Y35" t="n">
-        <v>185.8847200683483</v>
+        <v>185.8847200683482</v>
       </c>
     </row>
     <row r="36">
@@ -3351,7 +3351,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
@@ -3360,10 +3360,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>108.4800453703011</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>79.43615441375566</v>
+        <v>51.84121132484567</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>55.6119718957817</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>165.1488250350689</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>197.5551522218321</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6436725021343</v>
+        <v>23.84132081924667</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>49.18699506711249</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.868799735698474</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.55597917936657</v>
+        <v>18.55597917936654</v>
       </c>
       <c r="T37" t="n">
-        <v>26.79481656912655</v>
+        <v>26.79481656912652</v>
       </c>
       <c r="U37" t="n">
-        <v>85.24053192852355</v>
+        <v>85.24053192852352</v>
       </c>
       <c r="V37" t="n">
-        <v>52.13399938405161</v>
+        <v>52.13399938405158</v>
       </c>
       <c r="W37" t="n">
-        <v>85.29022520452799</v>
+        <v>85.29022520452796</v>
       </c>
       <c r="X37" t="n">
-        <v>25.3380082494217</v>
+        <v>25.33800824942168</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.94632218488067</v>
+        <v>17.94632218488064</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>182.9140583085075</v>
+        <v>182.9140583085076</v>
       </c>
       <c r="C38" t="n">
-        <v>166.1827439960551</v>
+        <v>166.1827439960552</v>
       </c>
       <c r="D38" t="n">
         <v>155.8023810717109</v>
@@ -3512,13 +3512,13 @@
         <v>182.3156840724</v>
       </c>
       <c r="F38" t="n">
-        <v>206.4915117976533</v>
+        <v>206.4915117976534</v>
       </c>
       <c r="G38" t="n">
         <v>213.668766445339</v>
       </c>
       <c r="H38" t="n">
-        <v>133.4125240439816</v>
+        <v>133.4125240439817</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>20.4833495645743</v>
+        <v>20.48334956457433</v>
       </c>
       <c r="U38" t="n">
-        <v>50.64472011160856</v>
+        <v>50.64472011160859</v>
       </c>
       <c r="V38" t="n">
         <v>127.7308698396319</v>
@@ -3591,7 +3591,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>48.59401186379056</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>81.95027155521966</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.1488250350689</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6436725021343</v>
+        <v>169.6448198591859</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.55597917936662</v>
+        <v>18.55597917936665</v>
       </c>
       <c r="T40" t="n">
-        <v>26.79481656912661</v>
+        <v>26.79481656912664</v>
       </c>
       <c r="U40" t="n">
-        <v>85.24053192852361</v>
+        <v>85.24053192852364</v>
       </c>
       <c r="V40" t="n">
-        <v>52.13399938405166</v>
+        <v>52.13399938405169</v>
       </c>
       <c r="W40" t="n">
-        <v>85.29022520452804</v>
+        <v>85.29022520452807</v>
       </c>
       <c r="X40" t="n">
-        <v>25.33800824942176</v>
+        <v>25.33800824942179</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.94632218488073</v>
+        <v>17.94632218488076</v>
       </c>
     </row>
     <row r="41">
@@ -3831,13 +3831,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>48.59401186379099</v>
+        <v>135.8179408160243</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>108.4800453703011</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>79.43615441375566</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>81.95027155521966</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.1488250350689</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6436725021343</v>
+        <v>23.8413208192467</v>
       </c>
       <c r="V42" t="n">
-        <v>231.9087310396551</v>
+        <v>31.10637935676758</v>
       </c>
       <c r="W42" t="n">
-        <v>249.98934675</v>
+        <v>129.3548247891962</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>182.9140583085076</v>
+        <v>182.9140583085075</v>
       </c>
       <c r="C44" t="n">
-        <v>166.1827439960552</v>
+        <v>166.1827439960551</v>
       </c>
       <c r="D44" t="n">
         <v>155.8023810717109</v>
@@ -3986,13 +3986,13 @@
         <v>182.3156840724</v>
       </c>
       <c r="F44" t="n">
-        <v>206.4915117976534</v>
+        <v>206.4915117976533</v>
       </c>
       <c r="G44" t="n">
         <v>213.668766445339</v>
       </c>
       <c r="H44" t="n">
-        <v>133.4125240439817</v>
+        <v>133.4125240439816</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>20.48334956457434</v>
+        <v>20.48334956457431</v>
       </c>
       <c r="U44" t="n">
-        <v>50.6447201116086</v>
+        <v>50.64472011160857</v>
       </c>
       <c r="V44" t="n">
         <v>127.7308698396319</v>
@@ -4068,7 +4068,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2.297266956389169</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>81.95027155521966</v>
       </c>
       <c r="S45" t="n">
-        <v>48.59401186379112</v>
+        <v>165.1488250350689</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6436725021343</v>
+        <v>23.84132081924675</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.55597917936665</v>
+        <v>18.55597917936662</v>
       </c>
       <c r="T46" t="n">
-        <v>26.79481656912664</v>
+        <v>26.79481656912661</v>
       </c>
       <c r="U46" t="n">
-        <v>85.24053192852364</v>
+        <v>85.24053192852361</v>
       </c>
       <c r="V46" t="n">
-        <v>52.13399938405169</v>
+        <v>52.13399938405166</v>
       </c>
       <c r="W46" t="n">
-        <v>85.29022520452807</v>
+        <v>85.29022520452804</v>
       </c>
       <c r="X46" t="n">
-        <v>25.33800824942179</v>
+        <v>25.33800824942176</v>
       </c>
       <c r="Y46" t="n">
-        <v>17.94632218488076</v>
+        <v>17.94632218488073</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239.7095924822811</v>
+        <v>271.7351149663752</v>
       </c>
       <c r="C2" t="n">
-        <v>239.7095924822811</v>
+        <v>190.7521445331721</v>
       </c>
       <c r="D2" t="n">
-        <v>239.7095924822811</v>
+        <v>190.7521445331721</v>
       </c>
       <c r="E2" t="n">
-        <v>239.7095924822811</v>
+        <v>190.7521445331721</v>
       </c>
       <c r="F2" t="n">
-        <v>158.726622049078</v>
+        <v>183.384605663939</v>
       </c>
       <c r="G2" t="n">
+        <v>168.3797921247158</v>
+      </c>
+      <c r="H2" t="n">
         <v>87.39682169151274</v>
-      </c>
-      <c r="H2" t="n">
-        <v>6.413851258309683</v>
       </c>
       <c r="I2" t="n">
         <v>6.413851258309683</v>
@@ -4331,49 +4331,49 @@
         <v>6.413851258309683</v>
       </c>
       <c r="K2" t="n">
-        <v>85.785260579892</v>
+        <v>6.413851258309683</v>
       </c>
       <c r="L2" t="n">
-        <v>165.1566699014743</v>
+        <v>6.413851258309683</v>
       </c>
       <c r="M2" t="n">
-        <v>165.1566699014743</v>
+        <v>78.5593877186117</v>
       </c>
       <c r="N2" t="n">
-        <v>241.3211535939018</v>
+        <v>157.930797040194</v>
       </c>
       <c r="O2" t="n">
-        <v>320.6925629154841</v>
+        <v>237.3022063617763</v>
       </c>
       <c r="P2" t="n">
-        <v>320.6925629154841</v>
+        <v>316.6736156833587</v>
       </c>
       <c r="Q2" t="n">
         <v>320.6925629154841</v>
       </c>
       <c r="R2" t="n">
-        <v>320.6925629154841</v>
+        <v>271.7351149663752</v>
       </c>
       <c r="S2" t="n">
-        <v>320.6925629154841</v>
+        <v>271.7351149663752</v>
       </c>
       <c r="T2" t="n">
-        <v>320.6925629154841</v>
+        <v>271.7351149663752</v>
       </c>
       <c r="U2" t="n">
-        <v>320.6925629154841</v>
+        <v>271.7351149663752</v>
       </c>
       <c r="V2" t="n">
-        <v>320.6925629154841</v>
+        <v>271.7351149663752</v>
       </c>
       <c r="W2" t="n">
-        <v>320.6925629154841</v>
+        <v>271.7351149663752</v>
       </c>
       <c r="X2" t="n">
-        <v>239.7095924822811</v>
+        <v>271.7351149663752</v>
       </c>
       <c r="Y2" t="n">
-        <v>239.7095924822811</v>
+        <v>271.7351149663752</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>239.7095924822811</v>
+        <v>87.39682169151274</v>
       </c>
       <c r="C3" t="n">
-        <v>158.726622049078</v>
+        <v>87.39682169151274</v>
       </c>
       <c r="D3" t="n">
-        <v>158.726622049078</v>
+        <v>87.39682169151274</v>
       </c>
       <c r="E3" t="n">
-        <v>158.726622049078</v>
+        <v>87.39682169151274</v>
       </c>
       <c r="F3" t="n">
-        <v>77.74365161587494</v>
+        <v>87.39682169151274</v>
       </c>
       <c r="G3" t="n">
-        <v>77.74365161587494</v>
+        <v>87.39682169151274</v>
       </c>
       <c r="H3" t="n">
         <v>6.413851258309683</v>
@@ -4410,49 +4410,49 @@
         <v>6.413851258309683</v>
       </c>
       <c r="K3" t="n">
-        <v>6.413851258309683</v>
+        <v>85.785260579892</v>
       </c>
       <c r="L3" t="n">
-        <v>82.57833495073717</v>
+        <v>85.785260579892</v>
       </c>
       <c r="M3" t="n">
-        <v>161.9497442723195</v>
+        <v>165.1566699014743</v>
       </c>
       <c r="N3" t="n">
-        <v>241.3211535939018</v>
+        <v>244.5280792230566</v>
       </c>
       <c r="O3" t="n">
-        <v>320.6925629154841</v>
+        <v>244.5280792230566</v>
       </c>
       <c r="P3" t="n">
-        <v>320.6925629154841</v>
+        <v>244.5280792230566</v>
       </c>
       <c r="Q3" t="n">
         <v>320.6925629154841</v>
       </c>
       <c r="R3" t="n">
-        <v>320.6925629154841</v>
+        <v>249.3627625579189</v>
       </c>
       <c r="S3" t="n">
-        <v>320.6925629154841</v>
+        <v>249.3627625579189</v>
       </c>
       <c r="T3" t="n">
-        <v>320.6925629154841</v>
+        <v>249.3627625579189</v>
       </c>
       <c r="U3" t="n">
-        <v>239.7095924822811</v>
+        <v>249.3627625579189</v>
       </c>
       <c r="V3" t="n">
-        <v>239.7095924822811</v>
+        <v>249.3627625579189</v>
       </c>
       <c r="W3" t="n">
-        <v>239.7095924822811</v>
+        <v>168.3797921247158</v>
       </c>
       <c r="X3" t="n">
-        <v>239.7095924822811</v>
+        <v>87.39682169151274</v>
       </c>
       <c r="Y3" t="n">
-        <v>239.7095924822811</v>
+        <v>87.39682169151274</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.16824033292207</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="C4" t="n">
-        <v>25.16824033292207</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="D4" t="n">
-        <v>25.16824033292207</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="E4" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="F4" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="G4" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="H4" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="I4" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="J4" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="K4" t="n">
         <v>6.413851258309683</v>
@@ -4507,31 +4507,31 @@
         <v>187.1341811993282</v>
       </c>
       <c r="Q4" t="n">
-        <v>187.1341811993282</v>
+        <v>106.5678176883704</v>
       </c>
       <c r="R4" t="n">
-        <v>187.1341811993282</v>
+        <v>106.5678176883704</v>
       </c>
       <c r="S4" t="n">
-        <v>106.1512107661251</v>
+        <v>106.5678176883704</v>
       </c>
       <c r="T4" t="n">
-        <v>106.1512107661251</v>
+        <v>102.3204678711424</v>
       </c>
       <c r="U4" t="n">
-        <v>106.1512107661251</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="V4" t="n">
-        <v>25.16824033292207</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="W4" t="n">
-        <v>25.16824033292207</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="X4" t="n">
-        <v>25.16824033292207</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.16824033292207</v>
+        <v>21.33749743793933</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.74365161587494</v>
+        <v>191.4180810327301</v>
       </c>
       <c r="C5" t="n">
-        <v>77.74365161587494</v>
+        <v>191.4180810327301</v>
       </c>
       <c r="D5" t="n">
-        <v>77.74365161587494</v>
+        <v>110.4351105995271</v>
       </c>
       <c r="E5" t="n">
-        <v>77.74365161587494</v>
+        <v>29.452140166324</v>
       </c>
       <c r="F5" t="n">
-        <v>70.37611274664177</v>
+        <v>22.08460129709083</v>
       </c>
       <c r="G5" t="n">
         <v>7.079787757867679</v>
@@ -4568,19 +4568,19 @@
         <v>6.413851258309683</v>
       </c>
       <c r="K5" t="n">
-        <v>85.785260579892</v>
+        <v>82.57833495073717</v>
       </c>
       <c r="L5" t="n">
-        <v>165.1566699014743</v>
+        <v>82.57833495073717</v>
       </c>
       <c r="M5" t="n">
-        <v>165.1566699014743</v>
+        <v>161.9497442723195</v>
       </c>
       <c r="N5" t="n">
-        <v>165.1566699014743</v>
+        <v>241.3211535939018</v>
       </c>
       <c r="O5" t="n">
-        <v>244.5280792230566</v>
+        <v>320.6925629154841</v>
       </c>
       <c r="P5" t="n">
         <v>320.6925629154841</v>
@@ -4595,22 +4595,22 @@
         <v>320.6925629154841</v>
       </c>
       <c r="T5" t="n">
-        <v>239.7095924822811</v>
+        <v>320.6925629154841</v>
       </c>
       <c r="U5" t="n">
-        <v>158.726622049078</v>
+        <v>320.6925629154841</v>
       </c>
       <c r="V5" t="n">
-        <v>158.726622049078</v>
+        <v>320.6925629154841</v>
       </c>
       <c r="W5" t="n">
-        <v>158.726622049078</v>
+        <v>320.6925629154841</v>
       </c>
       <c r="X5" t="n">
-        <v>158.726622049078</v>
+        <v>320.6925629154841</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.726622049078</v>
+        <v>272.4010514659332</v>
       </c>
     </row>
     <row r="6">
@@ -4623,73 +4623,73 @@
         <v>168.3797921247158</v>
       </c>
       <c r="C6" t="n">
-        <v>168.3797921247158</v>
+        <v>87.39682169151274</v>
       </c>
       <c r="D6" t="n">
-        <v>168.3797921247158</v>
+        <v>6.413851258309683</v>
       </c>
       <c r="E6" t="n">
-        <v>168.3797921247158</v>
+        <v>6.413851258309683</v>
       </c>
       <c r="F6" t="n">
-        <v>168.3797921247158</v>
+        <v>6.413851258309683</v>
       </c>
       <c r="G6" t="n">
-        <v>168.3797921247158</v>
+        <v>6.413851258309683</v>
       </c>
       <c r="H6" t="n">
-        <v>87.39682169151274</v>
+        <v>6.413851258309683</v>
       </c>
       <c r="I6" t="n">
         <v>6.413851258309683</v>
       </c>
       <c r="J6" t="n">
-        <v>6.413851258309683</v>
+        <v>13.80716210479458</v>
       </c>
       <c r="K6" t="n">
-        <v>82.57833495073717</v>
+        <v>93.17857142637691</v>
       </c>
       <c r="L6" t="n">
-        <v>161.9497442723195</v>
+        <v>172.5499807479592</v>
       </c>
       <c r="M6" t="n">
-        <v>161.9497442723195</v>
+        <v>251.9213900695416</v>
       </c>
       <c r="N6" t="n">
-        <v>161.9497442723195</v>
+        <v>320.6925629154841</v>
       </c>
       <c r="O6" t="n">
-        <v>161.9497442723195</v>
+        <v>320.6925629154841</v>
       </c>
       <c r="P6" t="n">
-        <v>241.3211535939018</v>
+        <v>320.6925629154841</v>
       </c>
       <c r="Q6" t="n">
         <v>320.6925629154841</v>
       </c>
       <c r="R6" t="n">
-        <v>320.6925629154841</v>
+        <v>249.3627625579189</v>
       </c>
       <c r="S6" t="n">
-        <v>239.7095924822811</v>
+        <v>249.3627625579189</v>
       </c>
       <c r="T6" t="n">
-        <v>239.7095924822811</v>
+        <v>249.3627625579189</v>
       </c>
       <c r="U6" t="n">
-        <v>239.7095924822811</v>
+        <v>249.3627625579189</v>
       </c>
       <c r="V6" t="n">
-        <v>239.7095924822811</v>
+        <v>249.3627625579189</v>
       </c>
       <c r="W6" t="n">
-        <v>239.7095924822811</v>
+        <v>249.3627625579189</v>
       </c>
       <c r="X6" t="n">
-        <v>239.7095924822811</v>
+        <v>249.3627625579189</v>
       </c>
       <c r="Y6" t="n">
-        <v>168.3797921247158</v>
+        <v>249.3627625579189</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="C7" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="D7" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="E7" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="F7" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="G7" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="H7" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="I7" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="J7" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="K7" t="n">
         <v>6.413851258309683</v>
@@ -4744,31 +4744,31 @@
         <v>187.1341811993282</v>
       </c>
       <c r="Q7" t="n">
-        <v>187.1341811993282</v>
+        <v>106.5678176883704</v>
       </c>
       <c r="R7" t="n">
-        <v>187.1341811993282</v>
+        <v>106.5678176883704</v>
       </c>
       <c r="S7" t="n">
-        <v>168.3797921247158</v>
+        <v>25.58484725516738</v>
       </c>
       <c r="T7" t="n">
-        <v>87.39682169151274</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="U7" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="V7" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="W7" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="X7" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.413851258309683</v>
+        <v>21.33749743793933</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.8515700725947</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C8" t="n">
-        <v>953.8515700725947</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="D8" t="n">
-        <v>953.8515700725947</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="E8" t="n">
-        <v>953.8515700725947</v>
+        <v>591.7221563263165</v>
       </c>
       <c r="F8" t="n">
-        <v>676.7972192224911</v>
+        <v>314.6678054762129</v>
       </c>
       <c r="G8" t="n">
-        <v>399.7428683723875</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="H8" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I8" t="n">
         <v>22.60864108688619</v>
@@ -4826,28 +4826,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.8515700725947</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159.3398866126235</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C9" t="n">
-        <v>159.3398866126235</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D9" t="n">
-        <v>159.3398866126235</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E9" t="n">
-        <v>159.3398866126235</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F9" t="n">
-        <v>159.3398866126235</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G9" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H9" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I9" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L9" t="n">
-        <v>270.0203090292462</v>
+        <v>277.4136198757311</v>
       </c>
       <c r="M9" t="n">
-        <v>359.1441712859057</v>
+        <v>548.9545891439176</v>
       </c>
       <c r="N9" t="n">
-        <v>630.6851405540922</v>
+        <v>820.4955584121041</v>
       </c>
       <c r="O9" t="n">
-        <v>898.564759531413</v>
+        <v>1088.375177389425</v>
       </c>
       <c r="P9" t="n">
         <v>1097.13522936641</v>
@@ -4905,28 +4905,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R9" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>403.5026004348891</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V9" t="n">
-        <v>169.25135696049</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W9" t="n">
-        <v>169.25135696049</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X9" t="n">
-        <v>159.3398866126235</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y9" t="n">
-        <v>159.3398866126235</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.86635076695784</v>
+        <v>190.9695257299568</v>
       </c>
       <c r="C10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -4981,31 +4981,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>202.6630345283467</v>
+        <v>190.9695257299568</v>
       </c>
       <c r="R10" t="n">
-        <v>202.6630345283467</v>
+        <v>190.9695257299568</v>
       </c>
       <c r="S10" t="n">
-        <v>202.6630345283467</v>
+        <v>190.9695257299568</v>
       </c>
       <c r="T10" t="n">
-        <v>202.6630345283467</v>
+        <v>190.9695257299568</v>
       </c>
       <c r="U10" t="n">
-        <v>36.86635076695784</v>
+        <v>190.9695257299568</v>
       </c>
       <c r="V10" t="n">
-        <v>36.86635076695784</v>
+        <v>190.9695257299568</v>
       </c>
       <c r="W10" t="n">
-        <v>36.86635076695784</v>
+        <v>190.9695257299568</v>
       </c>
       <c r="X10" t="n">
-        <v>36.86635076695784</v>
+        <v>190.9695257299568</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.86635076695784</v>
+        <v>190.9695257299568</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>929.9346355216601</v>
+        <v>1347.511705716669</v>
       </c>
       <c r="C11" t="n">
-        <v>929.9346355216601</v>
+        <v>1103.067474117789</v>
       </c>
       <c r="D11" t="n">
-        <v>695.9756189978752</v>
+        <v>869.108457594004</v>
       </c>
       <c r="E11" t="n">
-        <v>435.2354883319802</v>
+        <v>608.3683269281089</v>
       </c>
       <c r="F11" t="n">
-        <v>435.2354883319802</v>
+        <v>323.2081682569074</v>
       </c>
       <c r="G11" t="n">
-        <v>308.2507919720327</v>
+        <v>30.79825741632639</v>
       </c>
       <c r="H11" t="n">
-        <v>96.90779264797435</v>
+        <v>30.79825741632639</v>
       </c>
       <c r="I11" t="n">
         <v>30.79825741632639</v>
       </c>
       <c r="J11" t="n">
-        <v>62.38154018136561</v>
+        <v>62.38154018136584</v>
       </c>
       <c r="K11" t="n">
         <v>231.9932866562995</v>
@@ -5069,22 +5069,22 @@
         <v>1539.91287081632</v>
       </c>
       <c r="T11" t="n">
-        <v>1442.639744703784</v>
+        <v>1475.250862684795</v>
       </c>
       <c r="U11" t="n">
-        <v>1442.639744703784</v>
+        <v>1347.511705716669</v>
       </c>
       <c r="V11" t="n">
-        <v>1442.639744703784</v>
+        <v>1347.511705716669</v>
       </c>
       <c r="W11" t="n">
-        <v>1442.639744703784</v>
+        <v>1347.511705716669</v>
       </c>
       <c r="X11" t="n">
-        <v>1194.27985305215</v>
+        <v>1347.511705716669</v>
       </c>
       <c r="Y11" t="n">
-        <v>929.9346355216601</v>
+        <v>1347.511705716669</v>
       </c>
     </row>
     <row r="12">
@@ -5103,13 +5103,13 @@
         <v>234.9360275162611</v>
       </c>
       <c r="E12" t="n">
-        <v>186.6961023693792</v>
+        <v>77.3264985191158</v>
       </c>
       <c r="F12" t="n">
-        <v>167.9880966244318</v>
+        <v>58.61849277416836</v>
       </c>
       <c r="G12" t="n">
-        <v>30.79825741632639</v>
+        <v>47.67643780449867</v>
       </c>
       <c r="H12" t="n">
         <v>30.79825741632639</v>
@@ -5121,13 +5121,13 @@
         <v>30.79825741632639</v>
       </c>
       <c r="K12" t="n">
-        <v>202.8552562311471</v>
+        <v>30.79825741632639</v>
       </c>
       <c r="L12" t="n">
-        <v>495.0567312533388</v>
+        <v>224.0500138750413</v>
       </c>
       <c r="M12" t="n">
-        <v>876.1851667803778</v>
+        <v>605.1784494020803</v>
       </c>
       <c r="N12" t="n">
         <v>986.3068849291194</v>
@@ -5154,16 +5154,16 @@
         <v>1242.597717153591</v>
       </c>
       <c r="V12" t="n">
-        <v>1008.346473679192</v>
+        <v>1134.594257917628</v>
       </c>
       <c r="W12" t="n">
-        <v>882.079766250961</v>
+        <v>882.0797662509611</v>
       </c>
       <c r="X12" t="n">
         <v>801.8006518949743</v>
       </c>
       <c r="Y12" t="n">
-        <v>596.0722161186247</v>
+        <v>722.3200003570605</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241.5024995913339</v>
+        <v>241.502499591333</v>
       </c>
       <c r="C13" t="n">
-        <v>198.723462687141</v>
+        <v>198.7234626871401</v>
       </c>
       <c r="D13" t="n">
-        <v>176.8709248708691</v>
+        <v>174.4605736785867</v>
       </c>
       <c r="E13" t="n">
-        <v>154.6594927727401</v>
+        <v>152.2491415804575</v>
       </c>
       <c r="F13" t="n">
-        <v>133.2719018497571</v>
+        <v>130.8615506574745</v>
       </c>
       <c r="G13" t="n">
-        <v>90.10807197728263</v>
+        <v>87.69772078500021</v>
       </c>
       <c r="H13" t="n">
-        <v>54.63461689707187</v>
+        <v>52.22426570478943</v>
       </c>
       <c r="I13" t="n">
         <v>30.79825741632639</v>
       </c>
       <c r="J13" t="n">
-        <v>78.62841685468419</v>
+        <v>78.62841685468413</v>
       </c>
       <c r="K13" t="n">
         <v>207.5311068206315</v>
       </c>
       <c r="L13" t="n">
-        <v>393.6824591631881</v>
+        <v>393.682459163188</v>
       </c>
       <c r="M13" t="n">
-        <v>593.8196262693814</v>
+        <v>593.8196262693812</v>
       </c>
       <c r="N13" t="n">
-        <v>797.2813932830938</v>
+        <v>797.2813932830935</v>
       </c>
       <c r="O13" t="n">
-        <v>979.3204048225356</v>
+        <v>979.3204048225352</v>
       </c>
       <c r="P13" t="n">
-        <v>1129.722143057643</v>
+        <v>1129.722143057642</v>
       </c>
       <c r="Q13" t="n">
         <v>1188.760672031134</v>
@@ -5227,22 +5227,22 @@
         <v>1052.355590840002</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7072455309491</v>
+        <v>948.7072455309485</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0228241012927</v>
+        <v>786.022824101292</v>
       </c>
       <c r="V13" t="n">
-        <v>656.7793446357495</v>
+        <v>656.7793446357487</v>
       </c>
       <c r="W13" t="n">
-        <v>494.0447279778058</v>
+        <v>494.0447279778051</v>
       </c>
       <c r="X13" t="n">
-        <v>391.86790622401</v>
+        <v>391.8679062240092</v>
       </c>
       <c r="Y13" t="n">
-        <v>297.1574340303566</v>
+        <v>297.1574340303558</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>750.9417699759947</v>
+        <v>1117.366569433666</v>
       </c>
       <c r="C14" t="n">
-        <v>646.6219622258523</v>
+        <v>872.9223378347851</v>
       </c>
       <c r="D14" t="n">
-        <v>646.6219622258523</v>
+        <v>872.9223378347851</v>
       </c>
       <c r="E14" t="n">
-        <v>385.8818315599572</v>
+        <v>612.18220716889</v>
       </c>
       <c r="F14" t="n">
-        <v>100.7216728887556</v>
+        <v>327.0220484976886</v>
       </c>
       <c r="G14" t="n">
-        <v>100.7216728887556</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="H14" t="n">
-        <v>100.7216728887556</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="I14" t="n">
         <v>34.61213765710768</v>
@@ -5279,49 +5279,49 @@
         <v>66.19542042214709</v>
       </c>
       <c r="K14" t="n">
-        <v>291.7904161606237</v>
+        <v>235.8071668970807</v>
       </c>
       <c r="L14" t="n">
-        <v>554.1778638824895</v>
+        <v>621.9300679510375</v>
       </c>
       <c r="M14" t="n">
-        <v>861.3467499797428</v>
+        <v>992.2436325144831</v>
       </c>
       <c r="N14" t="n">
-        <v>1157.968774796963</v>
+        <v>1288.865657331703</v>
       </c>
       <c r="O14" t="n">
-        <v>1391.93219025873</v>
+        <v>1522.82907279347</v>
       </c>
       <c r="P14" t="n">
-        <v>1678.411212584512</v>
+        <v>1685.572641787161</v>
       </c>
       <c r="Q14" t="n">
-        <v>1723.445453652734</v>
+        <v>1730.606882855384</v>
       </c>
       <c r="R14" t="n">
         <v>1730.606882855384</v>
       </c>
       <c r="S14" t="n">
-        <v>1657.740940396141</v>
+        <v>1730.606882855384</v>
       </c>
       <c r="T14" t="n">
-        <v>1560.467814283605</v>
+        <v>1730.606882855384</v>
       </c>
       <c r="U14" t="n">
-        <v>1432.728657315479</v>
+        <v>1730.606882855384</v>
       </c>
       <c r="V14" t="n">
-        <v>1227.124702642279</v>
+        <v>1730.606882855384</v>
       </c>
       <c r="W14" t="n">
-        <v>999.3016616276291</v>
+        <v>1643.056336050361</v>
       </c>
       <c r="X14" t="n">
-        <v>750.9417699759947</v>
+        <v>1643.056336050361</v>
       </c>
       <c r="Y14" t="n">
-        <v>750.9417699759947</v>
+        <v>1378.711118519872</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>622.4516888999833</v>
+        <v>415.9653648496732</v>
       </c>
       <c r="C15" t="n">
-        <v>449.6985738218006</v>
+        <v>243.2122497714903</v>
       </c>
       <c r="D15" t="n">
-        <v>302.1102671807444</v>
+        <v>95.62394313043418</v>
       </c>
       <c r="E15" t="n">
-        <v>270.7485224220349</v>
+        <v>64.26219837172466</v>
       </c>
       <c r="F15" t="n">
-        <v>252.0405166770875</v>
+        <v>45.5541926267773</v>
       </c>
       <c r="G15" t="n">
-        <v>114.8506774689821</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="H15" t="n">
-        <v>114.8506774689821</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="I15" t="n">
         <v>34.61213765710768</v>
       </c>
       <c r="J15" t="n">
-        <v>34.61213765710768</v>
+        <v>61.20496968669885</v>
       </c>
       <c r="K15" t="n">
-        <v>206.6691364719284</v>
+        <v>233.2619685015196</v>
       </c>
       <c r="L15" t="n">
-        <v>498.8706114941201</v>
+        <v>525.4634435237112</v>
       </c>
       <c r="M15" t="n">
-        <v>892.6561446665488</v>
+        <v>919.2489766961399</v>
       </c>
       <c r="N15" t="n">
-        <v>1069.882296079079</v>
+        <v>1338.855573189651</v>
       </c>
       <c r="O15" t="n">
-        <v>1386.112336374815</v>
+        <v>1655.085613485386</v>
       </c>
       <c r="P15" t="n">
-        <v>1623.48828196628</v>
+        <v>1730.606882855384</v>
       </c>
       <c r="Q15" t="n">
         <v>1730.606882855384</v>
@@ -5382,25 +5382,25 @@
         <v>1730.606882855384</v>
       </c>
       <c r="S15" t="n">
-        <v>1690.037672108902</v>
+        <v>1563.789887870466</v>
       </c>
       <c r="T15" t="n">
-        <v>1536.684757325281</v>
+        <v>1364.239229060534</v>
       </c>
       <c r="U15" t="n">
-        <v>1436.01974105651</v>
+        <v>1263.574212791764</v>
       </c>
       <c r="V15" t="n">
-        <v>1201.768497582111</v>
+        <v>1155.5707535558</v>
       </c>
       <c r="W15" t="n">
-        <v>1075.50179015388</v>
+        <v>995.2632503420057</v>
       </c>
       <c r="X15" t="n">
-        <v>868.9748915594575</v>
+        <v>788.7363517475832</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.246455783108</v>
+        <v>583.0079159712336</v>
       </c>
     </row>
     <row r="16">
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>247.7267310243967</v>
+        <v>247.7267310243966</v>
       </c>
       <c r="C16" t="n">
-        <v>204.9476941202038</v>
+        <v>204.9476941202037</v>
       </c>
       <c r="D16" t="n">
-        <v>180.6848051116503</v>
+        <v>180.6848051116502</v>
       </c>
       <c r="E16" t="n">
         <v>158.4733730135212</v>
       </c>
       <c r="F16" t="n">
-        <v>137.0857820905384</v>
+        <v>137.0857820905383</v>
       </c>
       <c r="G16" t="n">
-        <v>93.92195221806392</v>
+        <v>93.92195221806384</v>
       </c>
       <c r="H16" t="n">
-        <v>58.44849713785316</v>
+        <v>58.44849713785312</v>
       </c>
       <c r="I16" t="n">
         <v>34.61213765710768</v>
       </c>
       <c r="J16" t="n">
-        <v>82.44229709546545</v>
+        <v>82.44229709546562</v>
       </c>
       <c r="K16" t="n">
-        <v>211.3449870614128</v>
+        <v>211.344987061413</v>
       </c>
       <c r="L16" t="n">
-        <v>397.4963394039694</v>
+        <v>397.4963394039697</v>
       </c>
       <c r="M16" t="n">
-        <v>597.6335065101626</v>
+        <v>597.633506510163</v>
       </c>
       <c r="N16" t="n">
-        <v>801.0952735238751</v>
+        <v>801.0952735238754</v>
       </c>
       <c r="O16" t="n">
-        <v>983.134285063317</v>
+        <v>983.1342850633173</v>
       </c>
       <c r="P16" t="n">
         <v>1133.536023298424</v>
@@ -5458,28 +5458,28 @@
         <v>1192.574552271916</v>
       </c>
       <c r="R16" t="n">
-        <v>1151.495758420382</v>
+        <v>1151.495758420383</v>
       </c>
       <c r="S16" t="n">
         <v>1056.169471080784</v>
       </c>
       <c r="T16" t="n">
-        <v>952.5211257717305</v>
+        <v>952.5211257717308</v>
       </c>
       <c r="U16" t="n">
-        <v>789.8367043420741</v>
+        <v>792.247055534355</v>
       </c>
       <c r="V16" t="n">
-        <v>660.5932248765309</v>
+        <v>663.0035760688118</v>
       </c>
       <c r="W16" t="n">
-        <v>497.8586082185873</v>
+        <v>500.2689594108683</v>
       </c>
       <c r="X16" t="n">
-        <v>395.6817864647914</v>
+        <v>398.0921376570726</v>
       </c>
       <c r="Y16" t="n">
-        <v>300.971314271138</v>
+        <v>303.3816654634192</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>979.0298286062941</v>
+        <v>979.0298286062932</v>
       </c>
       <c r="C17" t="n">
-        <v>831.8587231199497</v>
+        <v>831.858723119949</v>
       </c>
       <c r="D17" t="n">
-        <v>695.1728327087005</v>
+        <v>695.1728327086998</v>
       </c>
       <c r="E17" t="n">
-        <v>531.7058281553412</v>
+        <v>531.7058281553406</v>
       </c>
       <c r="F17" t="n">
-        <v>343.8187955966755</v>
+        <v>343.8187955966748</v>
       </c>
       <c r="G17" t="n">
         <v>148.6820108686303</v>
@@ -5528,10 +5528,10 @@
         <v>1132.528960955779</v>
       </c>
       <c r="O17" t="n">
-        <v>1396.408771989332</v>
+        <v>1366.492376417545</v>
       </c>
       <c r="P17" t="n">
-        <v>1559.152340983024</v>
+        <v>1529.235945411236</v>
       </c>
       <c r="Q17" t="n">
         <v>1604.186582051246</v>
@@ -5546,19 +5546,19 @@
         <v>1730.606882855384</v>
       </c>
       <c r="U17" t="n">
-        <v>1700.140851999794</v>
+        <v>1700.140851999793</v>
       </c>
       <c r="V17" t="n">
-        <v>1591.81002343913</v>
+        <v>1591.810023439129</v>
       </c>
       <c r="W17" t="n">
-        <v>1461.260108537016</v>
+        <v>1461.260108537015</v>
       </c>
       <c r="X17" t="n">
         <v>1310.173342997917</v>
       </c>
       <c r="Y17" t="n">
-        <v>1143.101251579964</v>
+        <v>1143.101251579963</v>
       </c>
     </row>
     <row r="18">
@@ -5571,22 +5571,22 @@
         <v>437.6304617147794</v>
       </c>
       <c r="C18" t="n">
-        <v>437.6304617147794</v>
+        <v>264.8773466365965</v>
       </c>
       <c r="D18" t="n">
-        <v>437.6304617147794</v>
+        <v>117.2890399955404</v>
       </c>
       <c r="E18" t="n">
-        <v>437.6304617147794</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="F18" t="n">
-        <v>292.6746717313962</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="G18" t="n">
-        <v>155.4848325232908</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="H18" t="n">
-        <v>114.8506774689821</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="I18" t="n">
         <v>34.61213765710768</v>
@@ -5604,13 +5604,13 @@
         <v>919.2489766961399</v>
       </c>
       <c r="N18" t="n">
-        <v>1177.000896968184</v>
+        <v>1069.882296079079</v>
       </c>
       <c r="O18" t="n">
-        <v>1493.230937263919</v>
+        <v>1386.112336374815</v>
       </c>
       <c r="P18" t="n">
-        <v>1730.606882855384</v>
+        <v>1623.48828196628</v>
       </c>
       <c r="Q18" t="n">
         <v>1730.606882855384</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
       <c r="C19" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
       <c r="D19" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
       <c r="E19" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
       <c r="F19" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
       <c r="G19" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
       <c r="H19" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
       <c r="I19" t="n">
         <v>34.61213765710768</v>
@@ -5701,22 +5701,22 @@
         <v>343.2931438675213</v>
       </c>
       <c r="T19" t="n">
-        <v>202.3589725139036</v>
+        <v>336.9179246710038</v>
       </c>
       <c r="U19" t="n">
-        <v>136.947677196783</v>
+        <v>271.5066293538833</v>
       </c>
       <c r="V19" t="n">
-        <v>104.9773238437756</v>
+        <v>239.5362760008758</v>
       </c>
       <c r="W19" t="n">
-        <v>39.51583329836775</v>
+        <v>174.074785455468</v>
       </c>
       <c r="X19" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>979.0298286062934</v>
+        <v>979.0298286062944</v>
       </c>
       <c r="C20" t="n">
-        <v>831.858723119949</v>
+        <v>831.8587231199499</v>
       </c>
       <c r="D20" t="n">
-        <v>695.1728327086998</v>
+        <v>695.1728327087008</v>
       </c>
       <c r="E20" t="n">
-        <v>531.7058281553406</v>
+        <v>531.7058281553415</v>
       </c>
       <c r="F20" t="n">
-        <v>343.8187955966748</v>
+        <v>343.8187955966757</v>
       </c>
       <c r="G20" t="n">
         <v>148.6820108686303</v>
@@ -5747,31 +5747,31 @@
         <v>34.61213765710768</v>
       </c>
       <c r="I20" t="n">
-        <v>34.61213765710768</v>
+        <v>65.15557307946585</v>
       </c>
       <c r="J20" t="n">
-        <v>229.1540715218389</v>
+        <v>96.73885584450528</v>
       </c>
       <c r="K20" t="n">
-        <v>398.7658179967726</v>
+        <v>266.350602319439</v>
       </c>
       <c r="L20" t="n">
-        <v>661.1532657186384</v>
+        <v>558.6544456130922</v>
       </c>
       <c r="M20" t="n">
-        <v>968.3221518158916</v>
+        <v>865.8233317103454</v>
       </c>
       <c r="N20" t="n">
-        <v>1264.944176633112</v>
+        <v>1162.445356527566</v>
       </c>
       <c r="O20" t="n">
-        <v>1498.907592094879</v>
+        <v>1396.408771989332</v>
       </c>
       <c r="P20" t="n">
-        <v>1661.65116108857</v>
+        <v>1559.152340983024</v>
       </c>
       <c r="Q20" t="n">
-        <v>1706.685402156792</v>
+        <v>1604.186582051246</v>
       </c>
       <c r="R20" t="n">
         <v>1706.685402156792</v>
@@ -5786,16 +5786,16 @@
         <v>1700.140851999794</v>
       </c>
       <c r="V20" t="n">
-        <v>1591.810023439129</v>
+        <v>1591.81002343913</v>
       </c>
       <c r="W20" t="n">
-        <v>1461.260108537016</v>
+        <v>1461.260108537017</v>
       </c>
       <c r="X20" t="n">
-        <v>1310.173342997917</v>
+        <v>1310.173342997918</v>
       </c>
       <c r="Y20" t="n">
-        <v>1143.101251579963</v>
+        <v>1143.101251579964</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>657.5188783568751</v>
+        <v>874.9472573768549</v>
       </c>
       <c r="C21" t="n">
-        <v>484.7657632786923</v>
+        <v>702.194142298672</v>
       </c>
       <c r="D21" t="n">
-        <v>337.1774566376362</v>
+        <v>554.6058356576159</v>
       </c>
       <c r="E21" t="n">
-        <v>179.5679276404908</v>
+        <v>396.9963066604706</v>
       </c>
       <c r="F21" t="n">
-        <v>34.61213765710768</v>
+        <v>252.0405166770875</v>
       </c>
       <c r="G21" t="n">
-        <v>34.61213765710768</v>
+        <v>114.8506774689821</v>
       </c>
       <c r="H21" t="n">
-        <v>34.61213765710768</v>
+        <v>114.8506774689821</v>
       </c>
       <c r="I21" t="n">
         <v>34.61213765710768</v>
@@ -5862,19 +5862,19 @@
         <v>1730.606882855384</v>
       </c>
       <c r="U21" t="n">
-        <v>1723.582498990274</v>
+        <v>1717.489967659281</v>
       </c>
       <c r="V21" t="n">
-        <v>1489.331255515875</v>
+        <v>1706.759634535854</v>
       </c>
       <c r="W21" t="n">
-        <v>1236.816763849208</v>
+        <v>1454.245142869187</v>
       </c>
       <c r="X21" t="n">
-        <v>1030.289865254785</v>
+        <v>1247.718244274765</v>
       </c>
       <c r="Y21" t="n">
-        <v>824.5614294784356</v>
+        <v>1041.989808498415</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
       <c r="C22" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
       <c r="D22" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
       <c r="E22" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
       <c r="F22" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
       <c r="G22" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
       <c r="H22" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
       <c r="I22" t="n">
         <v>34.61213765710768</v>
@@ -5935,25 +5935,25 @@
         <v>343.2931438675213</v>
       </c>
       <c r="S22" t="n">
-        <v>208.734191710421</v>
+        <v>343.2931438675213</v>
       </c>
       <c r="T22" t="n">
-        <v>202.3589725139036</v>
+        <v>336.9179246710038</v>
       </c>
       <c r="U22" t="n">
-        <v>136.947677196783</v>
+        <v>271.5066293538833</v>
       </c>
       <c r="V22" t="n">
-        <v>104.9773238437756</v>
+        <v>239.5362760008758</v>
       </c>
       <c r="W22" t="n">
-        <v>39.51583329836775</v>
+        <v>174.074785455468</v>
       </c>
       <c r="X22" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>979.029828606293</v>
+        <v>979.0298286062932</v>
       </c>
       <c r="C23" t="n">
         <v>831.8587231199488</v>
@@ -5987,25 +5987,25 @@
         <v>65.15557307946585</v>
       </c>
       <c r="J23" t="n">
-        <v>126.6552514162927</v>
+        <v>96.73885584450528</v>
       </c>
       <c r="K23" t="n">
-        <v>296.2669978912264</v>
+        <v>266.350602319439</v>
       </c>
       <c r="L23" t="n">
-        <v>558.6544456130922</v>
+        <v>528.7380500413049</v>
       </c>
       <c r="M23" t="n">
-        <v>865.8233317103454</v>
+        <v>835.9069361385581</v>
       </c>
       <c r="N23" t="n">
-        <v>1162.445356527566</v>
+        <v>1132.528960955779</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.408771989332</v>
+        <v>1366.492376417545</v>
       </c>
       <c r="P23" t="n">
-        <v>1559.152340983023</v>
+        <v>1529.235945411236</v>
       </c>
       <c r="Q23" t="n">
         <v>1604.186582051246</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>509.930571715819</v>
+        <v>512.563088373492</v>
       </c>
       <c r="C24" t="n">
-        <v>337.1774566376362</v>
+        <v>339.8099732953091</v>
       </c>
       <c r="D24" t="n">
-        <v>337.1774566376362</v>
+        <v>192.221666654253</v>
       </c>
       <c r="E24" t="n">
-        <v>179.5679276404908</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="F24" t="n">
         <v>34.61213765710768</v>
@@ -6066,19 +6066,19 @@
         <v>34.61213765710768</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20496968669885</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="K24" t="n">
-        <v>233.2619685015196</v>
+        <v>34.61213765710768</v>
       </c>
       <c r="L24" t="n">
-        <v>525.4634435237112</v>
+        <v>256.4901664131398</v>
       </c>
       <c r="M24" t="n">
-        <v>919.2489766961399</v>
+        <v>650.2756995855685</v>
       </c>
       <c r="N24" t="n">
-        <v>1338.855573189651</v>
+        <v>1069.882296079079</v>
       </c>
       <c r="O24" t="n">
         <v>1386.112336374814</v>
@@ -6099,19 +6099,19 @@
         <v>1730.606882855384</v>
       </c>
       <c r="U24" t="n">
-        <v>1575.994192349217</v>
+        <v>1503.694082348178</v>
       </c>
       <c r="V24" t="n">
-        <v>1341.742948874818</v>
+        <v>1344.375465532491</v>
       </c>
       <c r="W24" t="n">
-        <v>1089.228457208151</v>
+        <v>1091.860973865824</v>
       </c>
       <c r="X24" t="n">
-        <v>882.7015586137289</v>
+        <v>885.334075271402</v>
       </c>
       <c r="Y24" t="n">
-        <v>676.9731228373794</v>
+        <v>679.6056394950524</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.61213765710768</v>
+        <v>112.0586164794044</v>
       </c>
       <c r="C25" t="n">
-        <v>34.61213765710768</v>
+        <v>112.0586164794044</v>
       </c>
       <c r="D25" t="n">
-        <v>34.61213765710768</v>
+        <v>112.0586164794044</v>
       </c>
       <c r="E25" t="n">
-        <v>34.61213765710768</v>
+        <v>112.0586164794044</v>
       </c>
       <c r="F25" t="n">
-        <v>34.61213765710768</v>
+        <v>112.0586164794044</v>
       </c>
       <c r="G25" t="n">
-        <v>34.61213765710768</v>
+        <v>112.0586164794044</v>
       </c>
       <c r="H25" t="n">
-        <v>34.61213765710768</v>
+        <v>112.0586164794044</v>
       </c>
       <c r="I25" t="n">
-        <v>34.61213765710768</v>
+        <v>112.0586164794044</v>
       </c>
       <c r="J25" t="n">
         <v>34.61213765710768</v>
@@ -6187,10 +6187,10 @@
         <v>174.074785455468</v>
       </c>
       <c r="X25" t="n">
-        <v>34.61213765710768</v>
+        <v>169.1710898142079</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.61213765710768</v>
+        <v>112.0586164794044</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1475.431345165476</v>
+        <v>1475.431345165475</v>
       </c>
       <c r="C26" t="n">
-        <v>1255.896382028021</v>
+        <v>1255.89638202802</v>
       </c>
       <c r="D26" t="n">
-        <v>1046.846633965661</v>
+        <v>1046.84663396566</v>
       </c>
       <c r="E26" t="n">
-        <v>811.0157717611914</v>
+        <v>811.0157717611904</v>
       </c>
       <c r="F26" t="n">
-        <v>550.7648815514151</v>
+        <v>550.7648815514141</v>
       </c>
       <c r="G26" t="n">
-        <v>283.2642391722593</v>
+        <v>283.2642391722584</v>
       </c>
       <c r="H26" t="n">
-        <v>96.83050830962594</v>
+        <v>96.83050830962593</v>
       </c>
       <c r="I26" t="n">
-        <v>55.63024153940316</v>
+        <v>55.63024153940318</v>
       </c>
       <c r="J26" t="n">
-        <v>235.3625516555762</v>
+        <v>235.3625516555765</v>
       </c>
       <c r="K26" t="n">
-        <v>553.1233254816435</v>
+        <v>553.1233254816439</v>
       </c>
       <c r="L26" t="n">
-        <v>963.659800554643</v>
+        <v>963.6598005546434</v>
       </c>
       <c r="M26" t="n">
         <v>1418.97771400303</v>
@@ -6239,31 +6239,31 @@
         <v>1863.748766171384</v>
       </c>
       <c r="O26" t="n">
-        <v>2245.861208984284</v>
+        <v>2245.861208984285</v>
       </c>
       <c r="P26" t="n">
-        <v>2556.753805329109</v>
+        <v>2556.75380532911</v>
       </c>
       <c r="Q26" t="n">
         <v>2749.937073748466</v>
       </c>
       <c r="R26" t="n">
-        <v>2781.512076970158</v>
+        <v>2781.512076970159</v>
       </c>
       <c r="S26" t="n">
-        <v>2733.55540297234</v>
+        <v>2733.555402972341</v>
       </c>
       <c r="T26" t="n">
         <v>2661.191545321229</v>
       </c>
       <c r="U26" t="n">
-        <v>2558.361656814529</v>
+        <v>2558.361656814528</v>
       </c>
       <c r="V26" t="n">
-        <v>2377.666970602754</v>
+        <v>2377.666970602753</v>
       </c>
       <c r="W26" t="n">
-        <v>2174.75319804953</v>
+        <v>2174.753198049529</v>
       </c>
       <c r="X26" t="n">
         <v>1951.30257485932</v>
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>678.5369822391706</v>
+        <v>965.88239971224</v>
       </c>
       <c r="C27" t="n">
-        <v>505.7838671609878</v>
+        <v>793.1292846340573</v>
       </c>
       <c r="D27" t="n">
-        <v>358.1955605199316</v>
+        <v>645.5409779930012</v>
       </c>
       <c r="E27" t="n">
-        <v>200.5860315227863</v>
+        <v>487.9314489958559</v>
       </c>
       <c r="F27" t="n">
-        <v>55.63024153940316</v>
+        <v>342.9756590124728</v>
       </c>
       <c r="G27" t="n">
-        <v>55.63024153940316</v>
+        <v>205.7858198043674</v>
       </c>
       <c r="H27" t="n">
-        <v>55.63024153940316</v>
+        <v>96.21001640002282</v>
       </c>
       <c r="I27" t="n">
-        <v>55.63024153940316</v>
+        <v>55.63024153940318</v>
       </c>
       <c r="J27" t="n">
-        <v>82.22307356899432</v>
+        <v>82.22307356899435</v>
       </c>
       <c r="K27" t="n">
         <v>254.2800723838151</v>
@@ -6327,28 +6327,28 @@
         <v>2020.598263848251</v>
       </c>
       <c r="R27" t="n">
-        <v>1937.820211772271</v>
+        <v>2020.598263848251</v>
       </c>
       <c r="S27" t="n">
-        <v>1922.160269487214</v>
+        <v>2004.938321563194</v>
       </c>
       <c r="T27" t="n">
-        <v>1873.766663377143</v>
+        <v>1956.544715453123</v>
       </c>
       <c r="U27" t="n">
-        <v>1646.853862869937</v>
+        <v>1880.788967645778</v>
       </c>
       <c r="V27" t="n">
-        <v>1412.602619395538</v>
+        <v>1797.694776871239</v>
       </c>
       <c r="W27" t="n">
-        <v>1160.088127728871</v>
+        <v>1545.180285204573</v>
       </c>
       <c r="X27" t="n">
-        <v>953.5612291344486</v>
+        <v>1338.65338661015</v>
       </c>
       <c r="Y27" t="n">
-        <v>845.579533360731</v>
+        <v>1132.9249508338</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.3187580120057</v>
+        <v>102.3187580120056</v>
       </c>
       <c r="C28" t="n">
-        <v>84.44898956923798</v>
+        <v>84.44898956923795</v>
       </c>
       <c r="D28" t="n">
-        <v>84.44898956923798</v>
+        <v>84.44898956923795</v>
       </c>
       <c r="E28" t="n">
-        <v>84.44898956923798</v>
+        <v>84.44898956923795</v>
       </c>
       <c r="F28" t="n">
-        <v>84.44898956923798</v>
+        <v>84.44898956923795</v>
       </c>
       <c r="G28" t="n">
         <v>66.19442815818873</v>
       </c>
       <c r="H28" t="n">
-        <v>55.63024153940316</v>
+        <v>55.63024153940318</v>
       </c>
       <c r="I28" t="n">
-        <v>55.63024153940316</v>
+        <v>55.63024153940318</v>
       </c>
       <c r="J28" t="n">
         <v>127.8739749968038</v>
       </c>
       <c r="K28" t="n">
-        <v>133.0412116306603</v>
+        <v>142.1295870276201</v>
       </c>
       <c r="L28" t="n">
-        <v>343.6061379922597</v>
+        <v>352.6945133892196</v>
       </c>
       <c r="M28" t="n">
-        <v>420.0078517663621</v>
+        <v>577.2452545144557</v>
       </c>
       <c r="N28" t="n">
-        <v>647.8831927991174</v>
+        <v>656.9715681960773</v>
       </c>
       <c r="O28" t="n">
-        <v>798.7272293959628</v>
+        <v>715.2751264034283</v>
       </c>
       <c r="P28" t="n">
-        <v>825.3935142989792</v>
+        <v>741.9414113064447</v>
       </c>
       <c r="Q28" t="n">
-        <v>825.3935142989792</v>
+        <v>825.393514298979</v>
       </c>
       <c r="R28" t="n">
-        <v>809.2239889088712</v>
+        <v>809.223988908871</v>
       </c>
       <c r="S28" t="n">
-        <v>738.8069700306977</v>
+        <v>738.8069700306975</v>
       </c>
       <c r="T28" t="n">
-        <v>660.0678931830696</v>
+        <v>660.0678931830694</v>
       </c>
       <c r="U28" t="n">
-        <v>522.2927402148385</v>
+        <v>522.2927402148383</v>
       </c>
       <c r="V28" t="n">
-        <v>417.9585292107205</v>
+        <v>417.9585292107203</v>
       </c>
       <c r="W28" t="n">
-        <v>280.133181014202</v>
+        <v>280.1331810142019</v>
       </c>
       <c r="X28" t="n">
-        <v>202.8656277218314</v>
+        <v>202.8656277218313</v>
       </c>
       <c r="Y28" t="n">
-        <v>133.0644239896032</v>
+        <v>133.0644239896031</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1475.431345165475</v>
+        <v>1475.431345165476</v>
       </c>
       <c r="C29" t="n">
         <v>1255.896382028021</v>
@@ -6446,10 +6446,10 @@
         <v>1046.846633965661</v>
       </c>
       <c r="E29" t="n">
-        <v>811.015771761191</v>
+        <v>811.0157717611912</v>
       </c>
       <c r="F29" t="n">
-        <v>550.7648815514148</v>
+        <v>550.7648815514149</v>
       </c>
       <c r="G29" t="n">
         <v>283.2642391722591</v>
@@ -6458,13 +6458,13 @@
         <v>96.83050830962588</v>
       </c>
       <c r="I29" t="n">
-        <v>55.63024153940317</v>
+        <v>55.63024153940316</v>
       </c>
       <c r="J29" t="n">
-        <v>235.3625516555762</v>
+        <v>235.3625516555763</v>
       </c>
       <c r="K29" t="n">
-        <v>553.1233254816435</v>
+        <v>553.1233254816436</v>
       </c>
       <c r="L29" t="n">
         <v>963.6598005546431</v>
@@ -6491,16 +6491,16 @@
         <v>2733.55540297234</v>
       </c>
       <c r="T29" t="n">
-        <v>2661.19154532123</v>
+        <v>2661.191545321229</v>
       </c>
       <c r="U29" t="n">
-        <v>2558.361656814529</v>
+        <v>2558.361656814528</v>
       </c>
       <c r="V29" t="n">
-        <v>2377.666970602754</v>
+        <v>2377.666970602753</v>
       </c>
       <c r="W29" t="n">
-        <v>2174.75319804953</v>
+        <v>2174.753198049529</v>
       </c>
       <c r="X29" t="n">
         <v>1951.30257485932</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>678.5369822391706</v>
+        <v>814.7253470123792</v>
       </c>
       <c r="C30" t="n">
-        <v>505.7838671609878</v>
+        <v>641.9722319341963</v>
       </c>
       <c r="D30" t="n">
-        <v>358.1955605199316</v>
+        <v>494.3839252931402</v>
       </c>
       <c r="E30" t="n">
-        <v>200.5860315227863</v>
+        <v>336.7743962959948</v>
       </c>
       <c r="F30" t="n">
-        <v>55.63024153940317</v>
+        <v>191.8186063126117</v>
       </c>
       <c r="G30" t="n">
-        <v>55.63024153940317</v>
+        <v>55.63024153940316</v>
       </c>
       <c r="H30" t="n">
-        <v>55.63024153940317</v>
+        <v>55.63024153940316</v>
       </c>
       <c r="I30" t="n">
-        <v>55.63024153940317</v>
+        <v>55.63024153940316</v>
       </c>
       <c r="J30" t="n">
-        <v>82.22307356899435</v>
+        <v>82.22307356899432</v>
       </c>
       <c r="K30" t="n">
         <v>254.2800723838151</v>
@@ -6573,19 +6573,19 @@
         <v>1956.544715453123</v>
       </c>
       <c r="U30" t="n">
-        <v>1744.600602872569</v>
+        <v>1880.788967645778</v>
       </c>
       <c r="V30" t="n">
-        <v>1510.34935939817</v>
+        <v>1646.537724171378</v>
       </c>
       <c r="W30" t="n">
-        <v>1257.834867731503</v>
+        <v>1394.023232504712</v>
       </c>
       <c r="X30" t="n">
-        <v>1051.307969137081</v>
+        <v>1187.496333910289</v>
       </c>
       <c r="Y30" t="n">
-        <v>845.579533360731</v>
+        <v>981.7678981339396</v>
       </c>
     </row>
     <row r="31">
@@ -6598,46 +6598,46 @@
         <v>102.3187580120057</v>
       </c>
       <c r="C31" t="n">
-        <v>84.44898956923799</v>
+        <v>84.44898956923798</v>
       </c>
       <c r="D31" t="n">
-        <v>84.44898956923799</v>
+        <v>84.44898956923798</v>
       </c>
       <c r="E31" t="n">
-        <v>84.44898956923799</v>
+        <v>84.44898956923798</v>
       </c>
       <c r="F31" t="n">
-        <v>84.44898956923799</v>
+        <v>84.44898956923798</v>
       </c>
       <c r="G31" t="n">
-        <v>66.19442815818874</v>
+        <v>66.19442815818873</v>
       </c>
       <c r="H31" t="n">
-        <v>55.63024153940317</v>
+        <v>55.63024153940316</v>
       </c>
       <c r="I31" t="n">
-        <v>55.63024153940317</v>
+        <v>55.63024153940316</v>
       </c>
       <c r="J31" t="n">
-        <v>127.8739749968038</v>
+        <v>55.63024153940316</v>
       </c>
       <c r="K31" t="n">
-        <v>281.190238981794</v>
+        <v>60.79747817325966</v>
       </c>
       <c r="L31" t="n">
-        <v>491.7551653433934</v>
+        <v>123.2133771837255</v>
       </c>
       <c r="M31" t="n">
-        <v>568.1568791174958</v>
+        <v>199.6150909578279</v>
       </c>
       <c r="N31" t="n">
-        <v>647.8831927991174</v>
+        <v>427.4904319905831</v>
       </c>
       <c r="O31" t="n">
-        <v>798.7272293959628</v>
+        <v>633.9430175490678</v>
       </c>
       <c r="P31" t="n">
-        <v>825.3935142989792</v>
+        <v>808.7583298032179</v>
       </c>
       <c r="Q31" t="n">
         <v>825.3935142989792</v>
@@ -6677,55 +6677,55 @@
         <v>1108.660591672142</v>
       </c>
       <c r="C32" t="n">
-        <v>940.7992341003693</v>
+        <v>940.7992341003694</v>
       </c>
       <c r="D32" t="n">
-        <v>783.4230916036915</v>
+        <v>783.4230916036918</v>
       </c>
       <c r="E32" t="n">
-        <v>599.2658349649037</v>
+        <v>599.265834964904</v>
       </c>
       <c r="F32" t="n">
-        <v>390.6885503208093</v>
+        <v>390.6885503208098</v>
       </c>
       <c r="G32" t="n">
-        <v>174.8615135073359</v>
+        <v>174.8615135073357</v>
       </c>
       <c r="H32" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038464</v>
       </c>
       <c r="I32" t="n">
-        <v>50.36630756381424</v>
+        <v>50.36630756381434</v>
       </c>
       <c r="J32" t="n">
-        <v>81.94959032885366</v>
+        <v>81.94959032885376</v>
       </c>
       <c r="K32" t="n">
-        <v>251.5613368037873</v>
+        <v>251.5613368037874</v>
       </c>
       <c r="L32" t="n">
-        <v>712.7431126917118</v>
+        <v>513.9487845256533</v>
       </c>
       <c r="M32" t="n">
-        <v>1019.911998788965</v>
+        <v>821.1176706229065</v>
       </c>
       <c r="N32" t="n">
-        <v>1477.464916329272</v>
+        <v>1316.534023606186</v>
       </c>
       <c r="O32" t="n">
-        <v>1711.428331791038</v>
+        <v>1749.291767234011</v>
       </c>
       <c r="P32" t="n">
-        <v>1874.171900784729</v>
+        <v>1912.035336227702</v>
       </c>
       <c r="Q32" t="n">
-        <v>1919.206141852952</v>
+        <v>1957.069577295925</v>
       </c>
       <c r="R32" t="n">
-        <v>2001.42644588957</v>
+        <v>2005.069410519232</v>
       </c>
       <c r="S32" t="n">
-        <v>2005.069410519233</v>
+        <v>2005.069410519232</v>
       </c>
       <c r="T32" t="n">
         <v>1984.379158433804</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>712.0929893786279</v>
+        <v>871.4392583044274</v>
       </c>
       <c r="C33" t="n">
-        <v>539.339874300445</v>
+        <v>698.6861432262447</v>
       </c>
       <c r="D33" t="n">
-        <v>391.7515676593889</v>
+        <v>551.0978365851886</v>
       </c>
       <c r="E33" t="n">
-        <v>234.1420386622436</v>
+        <v>393.4883075880433</v>
       </c>
       <c r="F33" t="n">
-        <v>89.18624867886041</v>
+        <v>248.5325176046602</v>
       </c>
       <c r="G33" t="n">
-        <v>40.10138821038466</v>
+        <v>120.339928022259</v>
       </c>
       <c r="H33" t="n">
-        <v>40.10138821038466</v>
+        <v>120.339928022259</v>
       </c>
       <c r="I33" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038464</v>
       </c>
       <c r="J33" t="n">
-        <v>66.69422023997583</v>
+        <v>66.69422023997581</v>
       </c>
       <c r="K33" t="n">
-        <v>238.7512190547966</v>
+        <v>238.7512190547965</v>
       </c>
       <c r="L33" t="n">
-        <v>530.9526940769883</v>
+        <v>530.9526940769882</v>
       </c>
       <c r="M33" t="n">
-        <v>924.738227249417</v>
+        <v>924.7382272494169</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.344823742928</v>
+        <v>1344.344823742927</v>
       </c>
       <c r="O33" t="n">
         <v>1660.574864038663</v>
@@ -6798,31 +6798,31 @@
         <v>1897.950809630128</v>
       </c>
       <c r="Q33" t="n">
-        <v>2005.069410519233</v>
+        <v>2005.069410519232</v>
       </c>
       <c r="R33" t="n">
-        <v>2005.069410519233</v>
+        <v>1922.291358443253</v>
       </c>
       <c r="S33" t="n">
-        <v>2005.069410519233</v>
+        <v>1755.474363458334</v>
       </c>
       <c r="T33" t="n">
-        <v>2005.069410519233</v>
+        <v>1555.923704648403</v>
       </c>
       <c r="U33" t="n">
-        <v>1778.156610012026</v>
+        <v>1531.84156240674</v>
       </c>
       <c r="V33" t="n">
-        <v>1543.905366537627</v>
+        <v>1500.420977197883</v>
       </c>
       <c r="W33" t="n">
-        <v>1291.39087487096</v>
+        <v>1450.73714379676</v>
       </c>
       <c r="X33" t="n">
-        <v>1084.863976276538</v>
+        <v>1244.210245202337</v>
       </c>
       <c r="Y33" t="n">
-        <v>879.1355405001883</v>
+        <v>1038.481809425988</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038464</v>
       </c>
       <c r="C34" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038464</v>
       </c>
       <c r="D34" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038464</v>
       </c>
       <c r="E34" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038464</v>
       </c>
       <c r="F34" t="n">
-        <v>45.86470795946529</v>
+        <v>40.10138821038464</v>
       </c>
       <c r="G34" t="n">
-        <v>45.86470795946529</v>
+        <v>40.10138821038464</v>
       </c>
       <c r="H34" t="n">
-        <v>45.86470795946529</v>
+        <v>40.10138821038464</v>
       </c>
       <c r="I34" t="n">
-        <v>45.86470795946529</v>
+        <v>40.10138821038464</v>
       </c>
       <c r="J34" t="n">
-        <v>45.86470795946529</v>
+        <v>45.86470795946444</v>
       </c>
       <c r="K34" t="n">
-        <v>51.0319445933218</v>
+        <v>51.03194459332094</v>
       </c>
       <c r="L34" t="n">
-        <v>113.4478436037876</v>
+        <v>113.4478436037867</v>
       </c>
       <c r="M34" t="n">
-        <v>189.84955737789</v>
+        <v>189.8495573778891</v>
       </c>
       <c r="N34" t="n">
-        <v>269.5758710595116</v>
+        <v>269.5758710595107</v>
       </c>
       <c r="O34" t="n">
-        <v>327.8794292668625</v>
+        <v>327.8794292668617</v>
       </c>
       <c r="P34" t="n">
-        <v>354.5457141698789</v>
+        <v>354.545714169878</v>
       </c>
       <c r="Q34" t="n">
-        <v>354.5457141698789</v>
+        <v>354.545714169878</v>
       </c>
       <c r="R34" t="n">
-        <v>354.5457141698789</v>
+        <v>354.545714169878</v>
       </c>
       <c r="S34" t="n">
-        <v>335.8023008573873</v>
+        <v>335.8023008573866</v>
       </c>
       <c r="T34" t="n">
-        <v>308.7368295754412</v>
+        <v>308.7368295754406</v>
       </c>
       <c r="U34" t="n">
-        <v>222.6352821728921</v>
+        <v>222.6352821728916</v>
       </c>
       <c r="V34" t="n">
-        <v>169.974676734456</v>
+        <v>169.9746767344556</v>
       </c>
       <c r="W34" t="n">
-        <v>83.82293410361956</v>
+        <v>83.82293410361932</v>
       </c>
       <c r="X34" t="n">
-        <v>58.22898637693088</v>
+        <v>58.22898637693075</v>
       </c>
       <c r="Y34" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038464</v>
       </c>
     </row>
     <row r="35">
@@ -6914,73 +6914,73 @@
         <v>1108.660591672142</v>
       </c>
       <c r="C35" t="n">
-        <v>940.7992341003688</v>
+        <v>940.7992341003694</v>
       </c>
       <c r="D35" t="n">
-        <v>783.4230916036913</v>
+        <v>783.4230916036918</v>
       </c>
       <c r="E35" t="n">
-        <v>599.2658349649033</v>
+        <v>599.265834964904</v>
       </c>
       <c r="F35" t="n">
-        <v>390.688550320809</v>
+        <v>390.6885503208098</v>
       </c>
       <c r="G35" t="n">
-        <v>174.8615135073358</v>
+        <v>174.8615135073357</v>
       </c>
       <c r="H35" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038464</v>
       </c>
       <c r="I35" t="n">
-        <v>50.36630756381432</v>
+        <v>50.36630756381434</v>
       </c>
       <c r="J35" t="n">
-        <v>280.7439184949124</v>
+        <v>280.7439184949125</v>
       </c>
       <c r="K35" t="n">
-        <v>611.2865576929316</v>
+        <v>611.2865576929312</v>
       </c>
       <c r="L35" t="n">
-        <v>873.6740054147975</v>
+        <v>873.6740054147971</v>
       </c>
       <c r="M35" t="n">
-        <v>1180.842891512051</v>
+        <v>1180.84289151205</v>
       </c>
       <c r="N35" t="n">
         <v>1477.464916329271</v>
       </c>
       <c r="O35" t="n">
-        <v>1711.428331791038</v>
+        <v>1711.428331791037</v>
       </c>
       <c r="P35" t="n">
-        <v>1874.171900784729</v>
+        <v>1874.171900784728</v>
       </c>
       <c r="Q35" t="n">
-        <v>1919.206141852952</v>
+        <v>1919.206141852951</v>
       </c>
       <c r="R35" t="n">
         <v>2001.426445889569</v>
       </c>
       <c r="S35" t="n">
-        <v>2005.069410519233</v>
+        <v>2005.069410519232</v>
       </c>
       <c r="T35" t="n">
-        <v>1984.379158433803</v>
+        <v>1984.379158433804</v>
       </c>
       <c r="U35" t="n">
-        <v>1933.222875492784</v>
+        <v>1933.222875492785</v>
       </c>
       <c r="V35" t="n">
         <v>1804.201794846692</v>
       </c>
       <c r="W35" t="n">
-        <v>1652.961627859149</v>
+        <v>1652.96162785915</v>
       </c>
       <c r="X35" t="n">
-        <v>1481.184610234622</v>
+        <v>1481.184610234623</v>
       </c>
       <c r="Y35" t="n">
-        <v>1293.42226673124</v>
+        <v>1293.422266731241</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>695.2129431292258</v>
+        <v>715.3729888342386</v>
       </c>
       <c r="C36" t="n">
-        <v>522.4598280510429</v>
+        <v>542.6198737560558</v>
       </c>
       <c r="D36" t="n">
-        <v>374.8715214099867</v>
+        <v>395.0315671149996</v>
       </c>
       <c r="E36" t="n">
-        <v>374.8715214099867</v>
+        <v>237.4220381178543</v>
       </c>
       <c r="F36" t="n">
-        <v>229.9157314266036</v>
+        <v>92.46624813447119</v>
       </c>
       <c r="G36" t="n">
-        <v>229.9157314266036</v>
+        <v>92.46624813447119</v>
       </c>
       <c r="H36" t="n">
-        <v>120.3399280222591</v>
+        <v>92.46624813447119</v>
       </c>
       <c r="I36" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038464</v>
       </c>
       <c r="J36" t="n">
-        <v>66.69422023997583</v>
+        <v>66.69422023997581</v>
       </c>
       <c r="K36" t="n">
-        <v>238.7512190547966</v>
+        <v>238.7512190547965</v>
       </c>
       <c r="L36" t="n">
-        <v>530.9526940769883</v>
+        <v>530.9526940769881</v>
       </c>
       <c r="M36" t="n">
-        <v>924.738227249417</v>
+        <v>924.7382272494168</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.344823742928</v>
+        <v>1344.344823742927</v>
       </c>
       <c r="O36" t="n">
         <v>1660.574864038663</v>
@@ -7035,31 +7035,31 @@
         <v>1897.950809630128</v>
       </c>
       <c r="Q36" t="n">
-        <v>2005.069410519233</v>
+        <v>2005.069410519232</v>
       </c>
       <c r="R36" t="n">
-        <v>1948.895701533595</v>
+        <v>2005.069410519232</v>
       </c>
       <c r="S36" t="n">
-        <v>1782.078706548676</v>
+        <v>2005.069410519232</v>
       </c>
       <c r="T36" t="n">
-        <v>1582.528047738745</v>
+        <v>1805.518751709301</v>
       </c>
       <c r="U36" t="n">
-        <v>1355.615247231538</v>
+        <v>1781.436609467637</v>
       </c>
       <c r="V36" t="n">
-        <v>1121.364003757139</v>
+        <v>1547.185365993238</v>
       </c>
       <c r="W36" t="n">
-        <v>1071.680170356015</v>
+        <v>1294.670874326571</v>
       </c>
       <c r="X36" t="n">
-        <v>865.1532717615928</v>
+        <v>1088.143975732149</v>
       </c>
       <c r="Y36" t="n">
-        <v>862.2554942507862</v>
+        <v>882.4155399557991</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946444</v>
       </c>
       <c r="C37" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946444</v>
       </c>
       <c r="D37" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946444</v>
       </c>
       <c r="E37" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946444</v>
       </c>
       <c r="F37" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946444</v>
       </c>
       <c r="G37" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946444</v>
       </c>
       <c r="H37" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946444</v>
       </c>
       <c r="I37" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946444</v>
       </c>
       <c r="J37" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946444</v>
       </c>
       <c r="K37" t="n">
-        <v>45.26862484424116</v>
+        <v>51.03194459332094</v>
       </c>
       <c r="L37" t="n">
-        <v>107.684523854707</v>
+        <v>113.4478436037867</v>
       </c>
       <c r="M37" t="n">
-        <v>184.0862376288094</v>
+        <v>189.8495573778891</v>
       </c>
       <c r="N37" t="n">
-        <v>263.812551310431</v>
+        <v>269.5758710595107</v>
       </c>
       <c r="O37" t="n">
-        <v>322.1161095177819</v>
+        <v>327.8794292668617</v>
       </c>
       <c r="P37" t="n">
-        <v>348.7823944207983</v>
+        <v>354.545714169878</v>
       </c>
       <c r="Q37" t="n">
-        <v>348.7823944207983</v>
+        <v>354.545714169878</v>
       </c>
       <c r="R37" t="n">
-        <v>354.5457141698783</v>
+        <v>354.545714169878</v>
       </c>
       <c r="S37" t="n">
-        <v>335.8023008573868</v>
+        <v>335.8023008573866</v>
       </c>
       <c r="T37" t="n">
-        <v>308.7368295754408</v>
+        <v>308.7368295754406</v>
       </c>
       <c r="U37" t="n">
-        <v>222.6352821728917</v>
+        <v>222.6352821728916</v>
       </c>
       <c r="V37" t="n">
-        <v>169.9746767344557</v>
+        <v>169.9746767344556</v>
       </c>
       <c r="W37" t="n">
-        <v>83.82293410361939</v>
+        <v>83.82293410361932</v>
       </c>
       <c r="X37" t="n">
-        <v>58.22898637693079</v>
+        <v>58.22898637693075</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038464</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>1108.660591672142</v>
       </c>
       <c r="C38" t="n">
-        <v>940.7992341003692</v>
+        <v>940.7992341003693</v>
       </c>
       <c r="D38" t="n">
         <v>783.4230916036915</v>
@@ -7163,43 +7163,43 @@
         <v>390.6885503208093</v>
       </c>
       <c r="G38" t="n">
-        <v>174.8615135073358</v>
+        <v>174.8615135073359</v>
       </c>
       <c r="H38" t="n">
-        <v>40.10138821038464</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="I38" t="n">
-        <v>50.36630756381425</v>
+        <v>50.36630756381424</v>
       </c>
       <c r="J38" t="n">
-        <v>81.94959032885367</v>
+        <v>81.94959032885366</v>
       </c>
       <c r="K38" t="n">
         <v>251.5613368037873</v>
       </c>
       <c r="L38" t="n">
-        <v>513.9487845256532</v>
+        <v>513.9487845256531</v>
       </c>
       <c r="M38" t="n">
-        <v>821.1176706229064</v>
+        <v>821.1176706229063</v>
       </c>
       <c r="N38" t="n">
-        <v>1282.313552792875</v>
+        <v>1117.739695440127</v>
       </c>
       <c r="O38" t="n">
-        <v>1516.276968254642</v>
+        <v>1351.703110901893</v>
       </c>
       <c r="P38" t="n">
-        <v>1877.814865414392</v>
+        <v>1713.241008061643</v>
       </c>
       <c r="Q38" t="n">
-        <v>1922.849106482615</v>
+        <v>1919.206141852952</v>
       </c>
       <c r="R38" t="n">
-        <v>2005.069410519232</v>
+        <v>2001.42644588957</v>
       </c>
       <c r="S38" t="n">
-        <v>2005.069410519232</v>
+        <v>2005.069410519233</v>
       </c>
       <c r="T38" t="n">
         <v>1984.379158433804</v>
@@ -7208,7 +7208,7 @@
         <v>1933.222875492785</v>
       </c>
       <c r="V38" t="n">
-        <v>1804.201794846692</v>
+        <v>1804.201794846693</v>
       </c>
       <c r="W38" t="n">
         <v>1652.96162785915</v>
@@ -7217,7 +7217,7 @@
         <v>1481.184610234623</v>
       </c>
       <c r="Y38" t="n">
-        <v>1293.42226673124</v>
+        <v>1293.422266731241</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>712.0929893786274</v>
+        <v>518.0523389267689</v>
       </c>
       <c r="C39" t="n">
-        <v>539.3398743004445</v>
+        <v>345.2992238485861</v>
       </c>
       <c r="D39" t="n">
-        <v>391.7515676593884</v>
+        <v>197.71091720753</v>
       </c>
       <c r="E39" t="n">
-        <v>234.1420386622431</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="F39" t="n">
-        <v>89.18624867885995</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="G39" t="n">
-        <v>89.18624867885995</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="H39" t="n">
-        <v>89.18624867885995</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="I39" t="n">
-        <v>40.10138821038464</v>
+        <v>40.10138821038466</v>
       </c>
       <c r="J39" t="n">
-        <v>66.69422023997549</v>
+        <v>66.69422023997583</v>
       </c>
       <c r="K39" t="n">
-        <v>238.7512190547964</v>
+        <v>238.7512190547966</v>
       </c>
       <c r="L39" t="n">
-        <v>530.9526940769881</v>
+        <v>530.9526940769883</v>
       </c>
       <c r="M39" t="n">
-        <v>924.7382272494167</v>
+        <v>924.738227249417</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.344823742927</v>
+        <v>1344.344823742928</v>
       </c>
       <c r="O39" t="n">
         <v>1660.574864038663</v>
@@ -7272,31 +7272,31 @@
         <v>1897.950809630128</v>
       </c>
       <c r="Q39" t="n">
-        <v>2005.069410519232</v>
+        <v>2005.069410519233</v>
       </c>
       <c r="R39" t="n">
-        <v>2005.069410519232</v>
+        <v>1922.291358443253</v>
       </c>
       <c r="S39" t="n">
-        <v>2005.069410519232</v>
+        <v>1755.474363458335</v>
       </c>
       <c r="T39" t="n">
-        <v>2005.069410519232</v>
+        <v>1755.474363458335</v>
       </c>
       <c r="U39" t="n">
-        <v>1778.156610012026</v>
+        <v>1584.115959560167</v>
       </c>
       <c r="V39" t="n">
-        <v>1543.905366537627</v>
+        <v>1349.864716085768</v>
       </c>
       <c r="W39" t="n">
-        <v>1291.39087487096</v>
+        <v>1097.350224419101</v>
       </c>
       <c r="X39" t="n">
-        <v>1084.863976276537</v>
+        <v>890.8233258246789</v>
       </c>
       <c r="Y39" t="n">
-        <v>879.1355405001879</v>
+        <v>685.0948900483294</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>40.10138821038464</v>
+        <v>45.86470795946529</v>
       </c>
       <c r="C40" t="n">
-        <v>40.10138821038464</v>
+        <v>45.86470795946529</v>
       </c>
       <c r="D40" t="n">
-        <v>40.10138821038464</v>
+        <v>45.86470795946529</v>
       </c>
       <c r="E40" t="n">
-        <v>40.10138821038464</v>
+        <v>45.86470795946529</v>
       </c>
       <c r="F40" t="n">
-        <v>40.10138821038464</v>
+        <v>45.86470795946529</v>
       </c>
       <c r="G40" t="n">
-        <v>40.10138821038464</v>
+        <v>45.86470795946529</v>
       </c>
       <c r="H40" t="n">
-        <v>40.10138821038464</v>
+        <v>45.86470795946529</v>
       </c>
       <c r="I40" t="n">
-        <v>45.86470795946506</v>
+        <v>45.86470795946529</v>
       </c>
       <c r="J40" t="n">
-        <v>45.86470795946506</v>
+        <v>45.86470795946529</v>
       </c>
       <c r="K40" t="n">
-        <v>51.03194459332157</v>
+        <v>51.0319445933218</v>
       </c>
       <c r="L40" t="n">
-        <v>113.4478436037874</v>
+        <v>113.4478436037876</v>
       </c>
       <c r="M40" t="n">
-        <v>189.8495573778898</v>
+        <v>189.84955737789</v>
       </c>
       <c r="N40" t="n">
-        <v>269.5758710595114</v>
+        <v>269.5758710595116</v>
       </c>
       <c r="O40" t="n">
-        <v>327.8794292668623</v>
+        <v>327.8794292668625</v>
       </c>
       <c r="P40" t="n">
-        <v>354.5457141698786</v>
+        <v>354.5457141698789</v>
       </c>
       <c r="Q40" t="n">
-        <v>354.5457141698786</v>
+        <v>354.5457141698789</v>
       </c>
       <c r="R40" t="n">
-        <v>354.5457141698786</v>
+        <v>354.5457141698789</v>
       </c>
       <c r="S40" t="n">
-        <v>335.8023008573871</v>
+        <v>335.8023008573873</v>
       </c>
       <c r="T40" t="n">
-        <v>308.736829575441</v>
+        <v>308.7368295754412</v>
       </c>
       <c r="U40" t="n">
-        <v>222.6352821728919</v>
+        <v>222.6352821728921</v>
       </c>
       <c r="V40" t="n">
-        <v>169.9746767344559</v>
+        <v>169.974676734456</v>
       </c>
       <c r="W40" t="n">
-        <v>83.82293410361949</v>
+        <v>83.82293410361956</v>
       </c>
       <c r="X40" t="n">
-        <v>58.22898637693083</v>
+        <v>58.22898637693088</v>
       </c>
       <c r="Y40" t="n">
-        <v>40.10138821038464</v>
+        <v>40.10138821038466</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1108.660591672142</v>
+        <v>1108.660591672141</v>
       </c>
       <c r="C41" t="n">
-        <v>940.7992341003696</v>
+        <v>940.7992341003686</v>
       </c>
       <c r="D41" t="n">
-        <v>783.423091603692</v>
+        <v>783.423091603691</v>
       </c>
       <c r="E41" t="n">
-        <v>599.2658349649041</v>
+        <v>599.2658349649032</v>
       </c>
       <c r="F41" t="n">
-        <v>390.6885503208098</v>
+        <v>390.6885503208089</v>
       </c>
       <c r="G41" t="n">
         <v>174.8615135073358</v>
       </c>
       <c r="H41" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
       <c r="I41" t="n">
         <v>50.36630756381432</v>
       </c>
       <c r="J41" t="n">
-        <v>81.94959032885374</v>
+        <v>242.8804830519394</v>
       </c>
       <c r="K41" t="n">
-        <v>251.5613368037874</v>
+        <v>412.492229526873</v>
       </c>
       <c r="L41" t="n">
-        <v>513.9487845256533</v>
+        <v>674.8796772487389</v>
       </c>
       <c r="M41" t="n">
-        <v>821.1176706229065</v>
+        <v>982.0485633459921</v>
       </c>
       <c r="N41" t="n">
-        <v>1117.739695440127</v>
+        <v>1278.670588163212</v>
       </c>
       <c r="O41" t="n">
-        <v>1351.703110901894</v>
+        <v>1512.634003624979</v>
       </c>
       <c r="P41" t="n">
         <v>1675.37757261867</v>
@@ -7436,25 +7436,25 @@
         <v>2001.426445889569</v>
       </c>
       <c r="S41" t="n">
-        <v>2005.069410519233</v>
+        <v>2005.069410519232</v>
       </c>
       <c r="T41" t="n">
-        <v>1984.379158433804</v>
+        <v>1984.379158433803</v>
       </c>
       <c r="U41" t="n">
-        <v>1933.222875492785</v>
+        <v>1933.222875492784</v>
       </c>
       <c r="V41" t="n">
-        <v>1804.201794846693</v>
+        <v>1804.201794846692</v>
       </c>
       <c r="W41" t="n">
-        <v>1652.96162785915</v>
+        <v>1652.961627859149</v>
       </c>
       <c r="X41" t="n">
-        <v>1481.184610234623</v>
+        <v>1481.184610234622</v>
       </c>
       <c r="Y41" t="n">
-        <v>1293.422266731241</v>
+        <v>1293.42226673124</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>712.0929893786279</v>
+        <v>990.0123113344764</v>
       </c>
       <c r="C42" t="n">
-        <v>539.339874300445</v>
+        <v>817.2591962562935</v>
       </c>
       <c r="D42" t="n">
-        <v>391.7515676593889</v>
+        <v>669.6708896152375</v>
       </c>
       <c r="E42" t="n">
-        <v>234.1420386622436</v>
+        <v>512.0613606180922</v>
       </c>
       <c r="F42" t="n">
-        <v>89.18624867886041</v>
+        <v>367.105570634709</v>
       </c>
       <c r="G42" t="n">
-        <v>40.10138821038466</v>
+        <v>229.9157314266036</v>
       </c>
       <c r="H42" t="n">
-        <v>40.10138821038466</v>
+        <v>120.339928022259</v>
       </c>
       <c r="I42" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
       <c r="J42" t="n">
         <v>66.69422023997583</v>
@@ -7500,7 +7500,7 @@
         <v>924.738227249417</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.344823742928</v>
+        <v>1344.344823742927</v>
       </c>
       <c r="O42" t="n">
         <v>1660.574864038663</v>
@@ -7509,31 +7509,31 @@
         <v>1897.950809630128</v>
       </c>
       <c r="Q42" t="n">
-        <v>2005.069410519233</v>
+        <v>2005.069410519232</v>
       </c>
       <c r="R42" t="n">
-        <v>2005.069410519233</v>
+        <v>1922.291358443253</v>
       </c>
       <c r="S42" t="n">
-        <v>2005.069410519233</v>
+        <v>1755.474363458335</v>
       </c>
       <c r="T42" t="n">
-        <v>2005.069410519233</v>
+        <v>1755.474363458335</v>
       </c>
       <c r="U42" t="n">
-        <v>1778.156610012026</v>
+        <v>1731.392221216671</v>
       </c>
       <c r="V42" t="n">
-        <v>1543.905366537627</v>
+        <v>1699.971636007815</v>
       </c>
       <c r="W42" t="n">
-        <v>1291.39087487096</v>
+        <v>1569.310196826809</v>
       </c>
       <c r="X42" t="n">
-        <v>1084.863976276538</v>
+        <v>1362.783298232386</v>
       </c>
       <c r="Y42" t="n">
-        <v>879.1355405001883</v>
+        <v>1157.054862456037</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946472</v>
       </c>
       <c r="C43" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946472</v>
       </c>
       <c r="D43" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946472</v>
       </c>
       <c r="E43" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946472</v>
       </c>
       <c r="F43" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946472</v>
       </c>
       <c r="G43" t="n">
         <v>45.86470795946472</v>
@@ -7606,13 +7606,13 @@
         <v>169.9746767344557</v>
       </c>
       <c r="W43" t="n">
-        <v>83.82293410361939</v>
+        <v>83.82293410361937</v>
       </c>
       <c r="X43" t="n">
-        <v>58.22898637693079</v>
+        <v>58.22898637693078</v>
       </c>
       <c r="Y43" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
     </row>
     <row r="44">
@@ -7625,55 +7625,55 @@
         <v>1108.660591672143</v>
       </c>
       <c r="C44" t="n">
-        <v>940.7992341003697</v>
+        <v>940.7992341003699</v>
       </c>
       <c r="D44" t="n">
-        <v>783.423091603692</v>
+        <v>783.4230916036922</v>
       </c>
       <c r="E44" t="n">
-        <v>599.2658349649039</v>
+        <v>599.2658349649041</v>
       </c>
       <c r="F44" t="n">
-        <v>390.6885503208096</v>
+        <v>390.6885503208098</v>
       </c>
       <c r="G44" t="n">
-        <v>174.8615135073359</v>
+        <v>174.8615135073358</v>
       </c>
       <c r="H44" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
       <c r="I44" t="n">
-        <v>50.36630756381424</v>
+        <v>50.36630756381426</v>
       </c>
       <c r="J44" t="n">
-        <v>81.94959032885366</v>
+        <v>280.7439184949123</v>
       </c>
       <c r="K44" t="n">
-        <v>251.5613368037873</v>
+        <v>450.355664969846</v>
       </c>
       <c r="L44" t="n">
-        <v>513.9487845256531</v>
+        <v>712.7431126917118</v>
       </c>
       <c r="M44" t="n">
-        <v>821.1176706229063</v>
+        <v>1019.911998788965</v>
       </c>
       <c r="N44" t="n">
-        <v>1278.670588163213</v>
+        <v>1477.464916329271</v>
       </c>
       <c r="O44" t="n">
-        <v>1512.634003624979</v>
+        <v>1711.428331791038</v>
       </c>
       <c r="P44" t="n">
-        <v>1675.377572618671</v>
+        <v>1874.171900784729</v>
       </c>
       <c r="Q44" t="n">
         <v>1919.206141852952</v>
       </c>
       <c r="R44" t="n">
-        <v>2001.42644588957</v>
+        <v>2001.426445889569</v>
       </c>
       <c r="S44" t="n">
-        <v>2005.069410519233</v>
+        <v>2005.069410519232</v>
       </c>
       <c r="T44" t="n">
         <v>1984.379158433804</v>
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>663.0081289101521</v>
+        <v>665.3286005832724</v>
       </c>
       <c r="C45" t="n">
-        <v>490.2550138319693</v>
+        <v>492.5754855050896</v>
       </c>
       <c r="D45" t="n">
-        <v>342.6667071909131</v>
+        <v>344.9871788640335</v>
       </c>
       <c r="E45" t="n">
-        <v>185.0571781937678</v>
+        <v>187.3776498668882</v>
       </c>
       <c r="F45" t="n">
-        <v>40.10138821038466</v>
+        <v>42.42185988350502</v>
       </c>
       <c r="G45" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
       <c r="H45" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
       <c r="I45" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
       <c r="J45" t="n">
-        <v>66.69422023997583</v>
+        <v>66.69422023997582</v>
       </c>
       <c r="K45" t="n">
-        <v>238.7512190547966</v>
+        <v>238.7512190547965</v>
       </c>
       <c r="L45" t="n">
         <v>530.9526940769882</v>
@@ -7749,28 +7749,28 @@
         <v>2005.069410519232</v>
       </c>
       <c r="R45" t="n">
-        <v>2005.069410519233</v>
+        <v>1922.291358443253</v>
       </c>
       <c r="S45" t="n">
-        <v>1955.984550050757</v>
+        <v>1755.474363458334</v>
       </c>
       <c r="T45" t="n">
-        <v>1955.984550050757</v>
+        <v>1755.474363458334</v>
       </c>
       <c r="U45" t="n">
-        <v>1729.07174954355</v>
+        <v>1731.392221216671</v>
       </c>
       <c r="V45" t="n">
-        <v>1494.820506069151</v>
+        <v>1497.140977742272</v>
       </c>
       <c r="W45" t="n">
-        <v>1242.306014402484</v>
+        <v>1244.626486075605</v>
       </c>
       <c r="X45" t="n">
-        <v>1035.779115808062</v>
+        <v>1038.099587481182</v>
       </c>
       <c r="Y45" t="n">
-        <v>830.0506800317125</v>
+        <v>832.3711517048329</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946506</v>
       </c>
       <c r="C46" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946506</v>
       </c>
       <c r="D46" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946506</v>
       </c>
       <c r="E46" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946506</v>
       </c>
       <c r="F46" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946506</v>
       </c>
       <c r="G46" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946506</v>
       </c>
       <c r="H46" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946506</v>
       </c>
       <c r="I46" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946506</v>
       </c>
       <c r="J46" t="n">
-        <v>40.10138821038466</v>
+        <v>45.86470795946506</v>
       </c>
       <c r="K46" t="n">
-        <v>45.26862484424116</v>
+        <v>51.03194459332157</v>
       </c>
       <c r="L46" t="n">
-        <v>107.684523854707</v>
+        <v>113.4478436037874</v>
       </c>
       <c r="M46" t="n">
-        <v>184.0862376288094</v>
+        <v>189.8495573778898</v>
       </c>
       <c r="N46" t="n">
-        <v>263.812551310431</v>
+        <v>269.5758710595114</v>
       </c>
       <c r="O46" t="n">
-        <v>322.1161095177819</v>
+        <v>327.8794292668623</v>
       </c>
       <c r="P46" t="n">
-        <v>348.7823944207983</v>
+        <v>354.5457141698786</v>
       </c>
       <c r="Q46" t="n">
-        <v>348.7823944207983</v>
+        <v>354.5457141698786</v>
       </c>
       <c r="R46" t="n">
-        <v>354.5457141698789</v>
+        <v>354.5457141698786</v>
       </c>
       <c r="S46" t="n">
-        <v>335.8023008573873</v>
+        <v>335.8023008573871</v>
       </c>
       <c r="T46" t="n">
-        <v>308.7368295754412</v>
+        <v>308.736829575441</v>
       </c>
       <c r="U46" t="n">
-        <v>222.6352821728921</v>
+        <v>222.6352821728919</v>
       </c>
       <c r="V46" t="n">
-        <v>169.974676734456</v>
+        <v>169.9746767344559</v>
       </c>
       <c r="W46" t="n">
-        <v>83.82293410361956</v>
+        <v>83.82293410361949</v>
       </c>
       <c r="X46" t="n">
-        <v>58.22898637693088</v>
+        <v>58.22898637693084</v>
       </c>
       <c r="Y46" t="n">
-        <v>40.10138821038466</v>
+        <v>40.10138821038465</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7979,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>294.760745497727</v>
+        <v>214.587604768856</v>
       </c>
       <c r="L2" t="n">
-        <v>310.0453953246086</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M2" t="n">
-        <v>224.5875773965909</v>
+        <v>297.4618566494212</v>
       </c>
       <c r="N2" t="n">
-        <v>300.6115589182191</v>
+        <v>303.8508777355472</v>
       </c>
       <c r="O2" t="n">
         <v>304.5188968650156</v>
       </c>
       <c r="P2" t="n">
-        <v>225.4521708613878</v>
+        <v>305.6253115902588</v>
       </c>
       <c r="Q2" t="n">
-        <v>216.7480476275882</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8058,10 +8058,10 @@
         <v>123.666686</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>214.568543728871</v>
       </c>
       <c r="L3" t="n">
-        <v>212.0243421969203</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M3" t="n">
         <v>218.7538238028389</v>
@@ -8070,13 +8070,13 @@
         <v>208.231310010121</v>
       </c>
       <c r="O3" t="n">
-        <v>219.2044790622043</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P3" t="n">
         <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.482229733871</v>
+        <v>213.4160516454139</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8216,22 +8216,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K5" t="n">
-        <v>294.760745497727</v>
+        <v>291.521426680399</v>
       </c>
       <c r="L5" t="n">
-        <v>310.0453953246086</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M5" t="n">
-        <v>224.5875773965909</v>
+        <v>304.7607181254619</v>
       </c>
       <c r="N5" t="n">
-        <v>223.6777370066762</v>
+        <v>303.8508777355472</v>
       </c>
       <c r="O5" t="n">
         <v>304.5188968650156</v>
       </c>
       <c r="P5" t="n">
-        <v>302.3859927729307</v>
+        <v>225.4521708613878</v>
       </c>
       <c r="Q5" t="n">
         <v>216.7480476275882</v>
@@ -8292,28 +8292,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
-        <v>211.329224911543</v>
+        <v>214.568543728871</v>
       </c>
       <c r="L6" t="n">
         <v>215.2636610142484</v>
       </c>
       <c r="M6" t="n">
-        <v>138.5806830739679</v>
+        <v>218.7538238028389</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>197.5240004387677</v>
       </c>
       <c r="O6" t="n">
         <v>139.0313383333333</v>
       </c>
       <c r="P6" t="n">
-        <v>210.798187957843</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q6" t="n">
-        <v>216.655370462742</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8529,7 +8529,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
         <v>134.395403</v>
@@ -8538,7 +8538,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>228.6047863635229</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
         <v>402.3419766228525</v>
@@ -8547,7 +8547,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>331.2012793855346</v>
+        <v>139.473584579462</v>
       </c>
       <c r="Q9" t="n">
         <v>136.482229733871</v>
@@ -8769,16 +8769,16 @@
         <v>104.2732302594886</v>
       </c>
       <c r="K12" t="n">
-        <v>275.0438464930818</v>
+        <v>101.2488981952831</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>285.7247484454189</v>
       </c>
       <c r="M12" t="n">
-        <v>471.5483191834448</v>
+        <v>471.5483191834447</v>
       </c>
       <c r="N12" t="n">
-        <v>185.9050810902561</v>
+        <v>459.6492400582334</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -9003,7 +9003,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>104.2732302594886</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9015,16 +9015,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>253.6873369122653</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>331.2012793855346</v>
+        <v>167.7117074446591</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>110.2797722865917</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9252,7 +9252,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>335.0264973764202</v>
+        <v>226.8258904177288</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9261,7 +9261,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.2797722865917</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9714,13 +9714,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>104.2732302594886</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>101.2488981952831</v>
       </c>
       <c r="L24" t="n">
-        <v>385.6739591155975</v>
+        <v>314.6401750083657</v>
       </c>
       <c r="M24" t="n">
         <v>484.3332662999999</v>
@@ -9729,7 +9729,7 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O24" t="n">
-        <v>137.9266331482315</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
         <v>331.2012793855346</v>
@@ -23258,7 +23258,7 @@
         <v>258.7311035953437</v>
       </c>
       <c r="C11" t="n">
-        <v>241.9997892828913</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>282.3085570844895</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>163.7709623358266</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>209.2295693308178</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.4484398793315</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>72.13728303465111</v>
+        <v>72.13728303465115</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>32.28500680120131</v>
       </c>
       <c r="U11" t="n">
-        <v>126.4617653984447</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>203.547915126468</v>
       </c>
       <c r="W11" t="n">
-        <v>225.5448106045032</v>
+        <v>225.5448106045033</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>245.8762927351181</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>261.7017653551845</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2.386247680358423</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.386247680359645</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>258.7311035953437</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>138.7231796102503</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>231.619426358547</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>289.4858117321751</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>209.2295693308178</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.44843987933143</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>72.13728303465106</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>96.30039485141039</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>126.4617653984447</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>203.547915126468</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>138.8697692675301</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>245.876292735118</v>
       </c>
       <c r="Y14" t="n">
-        <v>261.7017653551844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.386247680358579</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.386247680357741</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1076578.360547977</v>
+        <v>1076578.360547976</v>
       </c>
     </row>
     <row r="6">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>183131.8669383608</v>
+      </c>
+      <c r="C2" t="n">
         <v>183131.8669383607</v>
-      </c>
-      <c r="C2" t="n">
-        <v>183131.8669383606</v>
       </c>
       <c r="D2" t="n">
         <v>183131.8669383607</v>
@@ -26323,7 +26323,7 @@
         <v>154919.6470413414</v>
       </c>
       <c r="F2" t="n">
-        <v>158233.1999702433</v>
+        <v>158233.1999702434</v>
       </c>
       <c r="G2" t="n">
         <v>183131.8669383607</v>
@@ -26332,25 +26332,25 @@
         <v>183131.8669383607</v>
       </c>
       <c r="I2" t="n">
+        <v>183131.8669383606</v>
+      </c>
+      <c r="J2" t="n">
         <v>183131.8669383607</v>
       </c>
-      <c r="J2" t="n">
-        <v>183131.8669383604</v>
-      </c>
       <c r="K2" t="n">
-        <v>183131.8669383605</v>
+        <v>183131.8669383606</v>
       </c>
       <c r="L2" t="n">
-        <v>183131.8669383605</v>
+        <v>183131.8669383606</v>
       </c>
       <c r="M2" t="n">
-        <v>183131.8669383605</v>
+        <v>183131.8669383606</v>
       </c>
       <c r="N2" t="n">
         <v>183131.8669383605</v>
       </c>
       <c r="O2" t="n">
-        <v>183131.8669383605</v>
+        <v>183131.8669383606</v>
       </c>
       <c r="P2" t="n">
         <v>183131.8669383606</v>
@@ -26375,10 +26375,10 @@
         <v>209709.7245994595</v>
       </c>
       <c r="F3" t="n">
-        <v>13659.69812337625</v>
+        <v>13659.69812337632</v>
       </c>
       <c r="G3" t="n">
-        <v>77040.31588112835</v>
+        <v>77040.31588112831</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>132393.6507422677</v>
+        <v>132393.6507422678</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
         <v>117965.8114891485</v>
       </c>
       <c r="M3" t="n">
-        <v>27585.48983997089</v>
+        <v>27585.48983997082</v>
       </c>
       <c r="N3" t="n">
-        <v>11676.52807167292</v>
+        <v>11676.52807167293</v>
       </c>
       <c r="O3" t="n">
-        <v>42676.06985716154</v>
+        <v>42676.06985716156</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>338538.9419734727</v>
       </c>
       <c r="D4" t="n">
-        <v>293256.9802362564</v>
+        <v>293256.9802362565</v>
       </c>
       <c r="E4" t="n">
         <v>186846.6421372741</v>
@@ -26433,10 +26433,10 @@
         <v>254477.1701724459</v>
       </c>
       <c r="H4" t="n">
+        <v>254477.170172446</v>
+      </c>
+      <c r="I4" t="n">
         <v>254477.1701724459</v>
-      </c>
-      <c r="I4" t="n">
-        <v>254477.170172446</v>
       </c>
       <c r="J4" t="n">
         <v>250122.7050276994</v>
@@ -26445,13 +26445,13 @@
         <v>250122.7050276994</v>
       </c>
       <c r="L4" t="n">
-        <v>249194.0994016848</v>
+        <v>249194.0994016849</v>
       </c>
       <c r="M4" t="n">
         <v>249194.0994016849</v>
       </c>
       <c r="N4" t="n">
-        <v>249194.0994016848</v>
+        <v>249194.0994016849</v>
       </c>
       <c r="O4" t="n">
         <v>249194.0994016849</v>
@@ -26479,7 +26479,7 @@
         <v>35994.48862360182</v>
       </c>
       <c r="F5" t="n">
-        <v>38893.03760659559</v>
+        <v>38893.0376065956</v>
       </c>
       <c r="G5" t="n">
         <v>46988.91550135882</v>
@@ -26491,22 +26491,22 @@
         <v>46988.91550135882</v>
       </c>
       <c r="J5" t="n">
+        <v>56939.9528745209</v>
+      </c>
+      <c r="K5" t="n">
         <v>56939.95287452088</v>
       </c>
-      <c r="K5" t="n">
-        <v>56939.95287452089</v>
-      </c>
       <c r="L5" t="n">
-        <v>49438.73120730511</v>
+        <v>49438.73120730512</v>
       </c>
       <c r="M5" t="n">
-        <v>49438.73120730513</v>
+        <v>49438.73120730512</v>
       </c>
       <c r="N5" t="n">
         <v>49438.73120730511</v>
       </c>
       <c r="O5" t="n">
-        <v>49438.73120730513</v>
+        <v>49438.73120730512</v>
       </c>
       <c r="P5" t="n">
         <v>49438.73120730511</v>
@@ -26522,43 +26522,43 @@
         <v>-220777.0654319088</v>
       </c>
       <c r="C6" t="n">
-        <v>-193909.2019914275</v>
+        <v>-193909.2019914274</v>
       </c>
       <c r="D6" t="n">
         <v>-220725.765154178</v>
       </c>
       <c r="E6" t="n">
-        <v>-277631.2083189941</v>
+        <v>-277944.6774289609</v>
       </c>
       <c r="F6" t="n">
-        <v>-85899.93198236062</v>
+        <v>-86176.58383756199</v>
       </c>
       <c r="G6" t="n">
-        <v>-195374.5346165724</v>
+        <v>-195374.5346165723</v>
       </c>
       <c r="H6" t="n">
-        <v>-118334.218735444</v>
+        <v>-118334.2187354441</v>
       </c>
       <c r="I6" t="n">
         <v>-118334.2187354441</v>
       </c>
       <c r="J6" t="n">
-        <v>-256324.4417061276</v>
+        <v>-256324.4417061274</v>
       </c>
       <c r="K6" t="n">
-        <v>-123930.7909638597</v>
+        <v>-123930.7909638598</v>
       </c>
       <c r="L6" t="n">
         <v>-233466.7751597779</v>
       </c>
       <c r="M6" t="n">
-        <v>-143086.4535106004</v>
+        <v>-143086.4535106002</v>
       </c>
       <c r="N6" t="n">
-        <v>-127177.4917423023</v>
+        <v>-127177.4917423024</v>
       </c>
       <c r="O6" t="n">
-        <v>-158177.0335277911</v>
+        <v>-158177.033527791</v>
       </c>
       <c r="P6" t="n">
         <v>-115500.9636706294</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="F2" t="n">
         <v>124.9853063960514</v>
@@ -26713,10 +26713,10 @@
         <v>149.6454821728623</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="M2" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="N2" t="n">
         <v>200.8023516828875</v>
@@ -26811,25 +26811,25 @@
         <v>432.651720713846</v>
       </c>
       <c r="J4" t="n">
+        <v>695.3780192425397</v>
+      </c>
+      <c r="K4" t="n">
         <v>695.3780192425395</v>
       </c>
-      <c r="K4" t="n">
-        <v>695.3780192425396</v>
-      </c>
       <c r="L4" t="n">
+        <v>501.267352629808</v>
+      </c>
+      <c r="M4" t="n">
+        <v>501.267352629808</v>
+      </c>
+      <c r="N4" t="n">
         <v>501.2673526298082</v>
       </c>
-      <c r="M4" t="n">
-        <v>501.2673526298082</v>
-      </c>
-      <c r="N4" t="n">
-        <v>501.267352629808</v>
-      </c>
       <c r="O4" t="n">
-        <v>501.2673526298082</v>
+        <v>501.2673526298081</v>
       </c>
       <c r="P4" t="n">
-        <v>501.2673526298082</v>
+        <v>501.2673526298081</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>96.30039485141043</v>
+        <v>96.30039485141039</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>53.34508732145187</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
       <c r="L2" t="n">
         <v>147.4572643614356</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.34508732145193</v>
+        <v>53.34508732145196</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>342.8994392575646</v>
+        <v>342.8994392575648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27045,7 +27045,7 @@
         <v>110.6944103624774</v>
       </c>
       <c r="N4" t="n">
-        <v>47.67350300976602</v>
+        <v>47.67350300976625</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>96.30039485141043</v>
+        <v>96.30039485141039</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>53.34508732145187</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.926151959655375e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27379,7 +27379,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>366.9850956789426</v>
+        <v>286.8119549500716</v>
       </c>
       <c r="D2" t="n">
         <v>356.6047327545984</v>
@@ -27388,16 +27388,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F2" t="n">
-        <v>327.1207227516698</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>344.2382630498413</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>257.9707626592823</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>125.051167139253</v>
       </c>
       <c r="J2" t="n">
         <v>0.6592771345624158</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.8508227008771</v>
+        <v>93.38294923125923</v>
       </c>
       <c r="S2" t="n">
         <v>205.8649517235392</v>
@@ -27442,7 +27442,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>290.6884584022984</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
         <v>386.6870717512358</v>
@@ -27458,7 +27458,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>90.85244319852995</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
         <v>146.1124235746456</v>
@@ -27467,13 +27467,13 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>63.33309135467826</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
         <v>136.0232102050423</v>
       </c>
       <c r="H3" t="n">
-        <v>39.84601316814317</v>
+        <v>30.28937479326174</v>
       </c>
       <c r="I3" t="n">
         <v>86.50354346547167</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>24.07847740710162</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
@@ -27512,16 +27512,16 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>144.4840363383302</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>169.816206021129</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>124.2884888796072</v>
       </c>
       <c r="Y3" t="n">
         <v>203.671151418586</v>
@@ -27543,7 +27543,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E4" t="n">
-        <v>128.4077789893329</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F4" t="n">
         <v>146.1590214098045</v>
@@ -27561,7 +27561,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>142.1842662325515</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
-        <v>228.3324659915077</v>
+        <v>224.1275896724519</v>
       </c>
       <c r="U4" t="n">
-        <v>286.0522703910642</v>
+        <v>205.8791296621932</v>
       </c>
       <c r="V4" t="n">
-        <v>172.7632103380681</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W4" t="n">
         <v>286.0925768874155</v>
@@ -27619,16 +27619,16 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D5" t="n">
-        <v>356.6047327545984</v>
+        <v>276.4315920257274</v>
       </c>
       <c r="E5" t="n">
-        <v>383.1180357552875</v>
+        <v>302.9448950264164</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>352.1914036649446</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>338.1439033881534</v>
@@ -27667,10 +27667,10 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>142.7919764675493</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>171.3046228476734</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
@@ -27682,7 +27682,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.6870717512358</v>
+        <v>338.8784754161803</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.3721256103448</v>
+        <v>85.19898488147379</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>90.85244319852995</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>65.93928284577453</v>
       </c>
       <c r="E6" t="n">
         <v>156.0334337071738</v>
@@ -27710,10 +27710,10 @@
         <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>30.28937479326174</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>6.330402736600632</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>24.07847740710162</v>
       </c>
       <c r="S6" t="n">
-        <v>88.78847317677335</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
         <v>198.3825319082687</v>
@@ -27761,7 +27761,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>133.0546490645964</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -27798,7 +27798,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
-        <v>203.7905617775563</v>
+        <v>142.1842662325515</v>
       </c>
       <c r="T7" t="n">
-        <v>148.1593252626366</v>
+        <v>224.1275896724519</v>
       </c>
       <c r="U7" t="n">
-        <v>205.8791296621932</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V7" t="n">
         <v>252.9363510669392</v>
@@ -27859,19 +27859,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>157.0429007871975</v>
       </c>
       <c r="F8" t="n">
         <v>133.0100561389384</v>
       </c>
       <c r="G8" t="n">
-        <v>140.5709580622284</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>170.0053262436311</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
         <v>205.8649517235392</v>
@@ -27919,7 +27919,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>50.59846856447039</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>194.6492739640904</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
         <v>203.671151418586</v>
@@ -28011,7 +28011,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C10" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>149.0055665145194</v>
@@ -28035,7 +28035,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>68.18412616544215</v>
       </c>
       <c r="R10" t="n">
         <v>173.3911476697823</v>
@@ -28065,7 +28065,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U10" t="n">
-        <v>121.9135534672892</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V10" t="n">
         <v>252.9363510669392</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="C11" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="D11" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="E11" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="F11" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="G11" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="H11" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="I11" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>117.751539524688</v>
       </c>
       <c r="S11" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="T11" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="U11" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="V11" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="W11" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="X11" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="Y11" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
     </row>
     <row r="12">
@@ -28166,7 +28166,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>124.9853063960514</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -28175,16 +28175,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>108.2759078117607</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="H12" t="n">
-        <v>108.4800453703011</v>
+        <v>91.77064678601054</v>
       </c>
       <c r="I12" t="n">
         <v>79.43615441375566</v>
@@ -28217,25 +28217,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="T12" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="U12" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="W12" t="n">
-        <v>124.9853063960514</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>124.9853063960513</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="C13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="D13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="E13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="F13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="G13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="H13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="I13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="J13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="K13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="L13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="M13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="N13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="O13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="P13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="Q13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="R13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="S13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="T13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="U13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="V13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="W13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="X13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
       <c r="Y13" t="n">
-        <v>124.9853063960514</v>
+        <v>124.9853063960513</v>
       </c>
     </row>
     <row r="14">
@@ -28351,13 +28351,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54873662984136</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>63.78250350120447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -28366,13 +28366,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>124.9853063960514</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>124.9853063960514</v>
+        <v>117.751539524688</v>
       </c>
       <c r="S14" t="n">
         <v>124.9853063960514</v>
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>124.9853063960514</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28418,13 +28418,13 @@
         <v>124.9853063960514</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="H15" t="n">
         <v>108.4800453703011</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>79.43615441375566</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,19 +28454,19 @@
         <v>81.95027155521966</v>
       </c>
       <c r="S15" t="n">
-        <v>124.9853063960514</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>45.73576658604742</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>124.9853063960514</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>124.9853063960514</v>
       </c>
       <c r="W15" t="n">
-        <v>124.9853063960514</v>
+        <v>91.2849185683433</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -28600,13 +28600,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>30.21858138564374</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>30.21858138564379</v>
       </c>
       <c r="R17" t="n">
         <v>221.2857012474618</v>
@@ -28643,25 +28643,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>74.18330039212543</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.8179408160243</v>
       </c>
       <c r="H18" t="n">
-        <v>68.25223186653547</v>
+        <v>108.4800453703011</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>79.43615441375566</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>160.10402692546</v>
       </c>
       <c r="I19" t="n">
-        <v>148.5833022819894</v>
+        <v>15.36993964646015</v>
       </c>
       <c r="J19" t="n">
         <v>76.6720140340738</v>
@@ -28773,7 +28773,7 @@
         <v>219.3583308622541</v>
       </c>
       <c r="T19" t="n">
-        <v>88.07233861193257</v>
+        <v>221.2857012474618</v>
       </c>
       <c r="U19" t="n">
         <v>221.2857012474618</v>
@@ -28819,16 +28819,16 @@
         <v>221.2857012474618</v>
       </c>
       <c r="I20" t="n">
-        <v>190.4337462753828</v>
+        <v>221.2857012474618</v>
       </c>
       <c r="J20" t="n">
-        <v>164.6046980804968</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>30.21858138564386</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>117.751539524688</v>
+        <v>221.2857012474618</v>
       </c>
       <c r="S20" t="n">
         <v>221.2857012474618</v>
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8179408160243</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>108.4800453703011</v>
       </c>
       <c r="I21" t="n">
-        <v>79.43615441375566</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28934,10 +28934,10 @@
         <v>197.5551522218321</v>
       </c>
       <c r="U21" t="n">
-        <v>217.689532475675</v>
+        <v>211.6579264579925</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>221.2857012474618</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>160.10402692546</v>
       </c>
       <c r="I22" t="n">
-        <v>148.5833022819894</v>
+        <v>15.36993964646015</v>
       </c>
       <c r="J22" t="n">
         <v>76.6720140340738</v>
@@ -29007,7 +29007,7 @@
         <v>165.6533123090692</v>
       </c>
       <c r="S22" t="n">
-        <v>86.1449682267249</v>
+        <v>219.3583308622541</v>
       </c>
       <c r="T22" t="n">
         <v>221.2857012474618</v>
@@ -29059,7 +29059,7 @@
         <v>221.2857012474618</v>
       </c>
       <c r="J23" t="n">
-        <v>30.21858138564388</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>30.21858138564357</v>
       </c>
       <c r="R23" t="n">
         <v>221.2857012474618</v>
@@ -29120,13 +29120,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>135.8179408160243</v>
@@ -29171,10 +29171,10 @@
         <v>197.5551522218321</v>
       </c>
       <c r="U24" t="n">
-        <v>71.57710890102945</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>74.18330039212574</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29217,7 +29217,7 @@
         <v>148.5833022819894</v>
       </c>
       <c r="J25" t="n">
-        <v>76.6720140340738</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29259,10 +29259,10 @@
         <v>221.2857012474618</v>
       </c>
       <c r="X25" t="n">
-        <v>88.07233861193257</v>
+        <v>221.2857012474618</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>162.2073252663128</v>
       </c>
     </row>
     <row r="26">
@@ -29296,7 +29296,7 @@
         <v>149.6454821728623</v>
       </c>
       <c r="J26" t="n">
-        <v>149.6454821728622</v>
+        <v>149.6454821728623</v>
       </c>
       <c r="K26" t="n">
         <v>149.6454821728623</v>
@@ -29366,13 +29366,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.8179408160243</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>108.4800453703011</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>79.43615441375566</v>
+        <v>39.26217730174221</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29399,7 +29399,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>81.95027155521966</v>
       </c>
       <c r="S27" t="n">
         <v>149.6454821728623</v>
@@ -29408,10 +29408,10 @@
         <v>149.6454821728623</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>149.6454821728623</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>149.6454821728623</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>96.76927260260565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29457,25 +29457,25 @@
         <v>149.6454821728623</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>9.180177168646241</v>
       </c>
       <c r="L28" t="n">
         <v>149.6454821728623</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>149.6454821728623</v>
       </c>
       <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>149.6454821728623</v>
-      </c>
-      <c r="O28" t="n">
-        <v>93.47523069645905</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>65.35042864504993</v>
       </c>
       <c r="R28" t="n">
         <v>149.6454821728623</v>
@@ -29603,7 +29603,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.8179408160243</v>
+        <v>0.9914596905478845</v>
       </c>
       <c r="H30" t="n">
         <v>108.4800453703011</v>
@@ -29645,7 +29645,7 @@
         <v>149.6454821728623</v>
       </c>
       <c r="U30" t="n">
-        <v>14.8190010473858</v>
+        <v>149.6454821728623</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -29691,28 +29691,28 @@
         <v>148.5833022819894</v>
       </c>
       <c r="J31" t="n">
+        <v>76.6720140340738</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>149.6454821728623</v>
       </c>
-      <c r="K31" t="n">
+      <c r="O31" t="n">
         <v>149.6454821728623</v>
       </c>
-      <c r="L31" t="n">
+      <c r="P31" t="n">
         <v>149.6454821728623</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>93.47523069645905</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
       <c r="Q31" t="n">
-        <v>65.35042864504993</v>
+        <v>82.15364530743511</v>
       </c>
       <c r="R31" t="n">
         <v>149.6454821728623</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="C32" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="D32" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="E32" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="F32" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="G32" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="H32" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="I32" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,16 +29776,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>200.8023516828875</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>162.5564572960466</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>200.8023516828875</v>
+        <v>166.2362195482308</v>
       </c>
       <c r="S32" t="n">
-        <v>200.8023516828875</v>
+        <v>197.1225894307025</v>
       </c>
       <c r="T32" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="U32" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="V32" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="W32" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="X32" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="Y32" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
     </row>
     <row r="33">
@@ -29840,13 +29840,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>87.22392895223334</v>
+        <v>8.907277129447223</v>
       </c>
       <c r="H33" t="n">
         <v>108.4800453703011</v>
       </c>
       <c r="I33" t="n">
-        <v>79.43615441375566</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,22 +29873,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>81.95027155521966</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.1488250350689</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5551522218321</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29916,7 +29916,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>151.980556509886</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>167.7174979698011</v>
@@ -29928,7 +29928,7 @@
         <v>148.5833022819894</v>
       </c>
       <c r="J34" t="n">
-        <v>76.6720140340738</v>
+        <v>82.49354913415441</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29955,25 +29955,25 @@
         <v>165.6533123090692</v>
       </c>
       <c r="S34" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="T34" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="U34" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="V34" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="W34" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="X34" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="Y34" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
     </row>
     <row r="35">
@@ -29983,34 +29983,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="C35" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="D35" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="E35" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="F35" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="G35" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="H35" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="I35" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="J35" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="K35" t="n">
-        <v>162.5564572960461</v>
+        <v>162.5564572960456</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="S35" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="T35" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="U35" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="V35" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="W35" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="X35" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="Y35" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
     </row>
     <row r="36">
@@ -30071,7 +30071,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30080,10 +30080,10 @@
         <v>135.8179408160243</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>108.4800453703011</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>27.59494308890999</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>26.33829965943796</v>
+        <v>81.95027155521966</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.1488250350689</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>200.8023516828875</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>200.8023516828875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.0836914906838</v>
+        <v>185.9052265907644</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
@@ -30189,28 +30189,28 @@
         <v>65.35042864504993</v>
       </c>
       <c r="R37" t="n">
-        <v>171.4748474091501</v>
+        <v>165.6533123090692</v>
       </c>
       <c r="S37" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="T37" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="U37" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="V37" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="W37" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="X37" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
       <c r="Y37" t="n">
-        <v>200.8023516828875</v>
+        <v>200.8023516828876</v>
       </c>
     </row>
     <row r="38">
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>166.236219548231</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30265,13 +30265,13 @@
         <v>200.8023516828875</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>162.5564572960467</v>
       </c>
       <c r="R38" t="n">
         <v>200.8023516828875</v>
       </c>
       <c r="S38" t="n">
-        <v>197.1225894307025</v>
+        <v>200.8023516828875</v>
       </c>
       <c r="T38" t="n">
         <v>200.8023516828875</v>
@@ -30311,7 +30311,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
         <v>135.8179408160243</v>
@@ -30320,7 +30320,7 @@
         <v>108.4800453703011</v>
       </c>
       <c r="I39" t="n">
-        <v>30.8421425499651</v>
+        <v>79.43615441375566</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>81.95027155521966</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.1488250350689</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>197.5551522218321</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>54.99885264294835</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>185.9052265907653</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -30399,7 +30399,7 @@
         <v>160.10402692546</v>
       </c>
       <c r="I40" t="n">
-        <v>154.4048373820706</v>
+        <v>148.5833022819894</v>
       </c>
       <c r="J40" t="n">
         <v>76.6720140340738</v>
@@ -30481,7 +30481,7 @@
         <v>200.8023516828875</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>162.5564572960461</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>162.556457296046</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>200.8023516828875</v>
@@ -30551,13 +30551,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>87.22392895223334</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>108.4800453703011</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>79.43615441375566</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,22 +30584,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>81.95027155521966</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.1488250350689</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>197.5551522218321</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>200.8023516828875</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>200.8023516828875</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>120.6345219608039</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.0836914906838</v>
+        <v>185.9052265907647</v>
       </c>
       <c r="C43" t="n">
         <v>167.3365529312023</v>
@@ -30630,7 +30630,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>173.5390330698819</v>
+        <v>167.7174979698011</v>
       </c>
       <c r="H43" t="n">
         <v>160.10402692546</v>
@@ -30718,7 +30718,7 @@
         <v>200.8023516828875</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>200.8023516828875</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>162.5564572960466</v>
+        <v>162.5564572960462</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>200.8023516828875</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>200.8023516828875</v>
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.8179408160243</v>
+        <v>133.5206738596352</v>
       </c>
       <c r="H45" t="n">
         <v>108.4800453703011</v>
@@ -30821,16 +30821,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>81.95027155521966</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>116.5548131712778</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>197.5551522218321</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>200.8023516828875</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>180.0836914906838</v>
+        <v>185.905226590765</v>
       </c>
       <c r="C46" t="n">
         <v>167.3365529312023</v>
@@ -30900,7 +30900,7 @@
         <v>65.35042864504993</v>
       </c>
       <c r="R46" t="n">
-        <v>171.4748474091507</v>
+        <v>165.6533123090692</v>
       </c>
       <c r="S46" t="n">
         <v>200.8023516828875</v>
@@ -34699,25 +34699,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>72.87427925283033</v>
+      </c>
+      <c r="N2" t="n">
         <v>80.17314072887103</v>
-      </c>
-      <c r="L2" t="n">
-        <v>80.17314072887103</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>76.93382191154292</v>
       </c>
       <c r="O2" t="n">
         <v>80.17314072887103</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>80.17314072887103</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>80.17314072887103</v>
       </c>
       <c r="L3" t="n">
-        <v>76.93382191154292</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>80.17314072887103</v>
@@ -34790,13 +34790,13 @@
         <v>80.17314072887103</v>
       </c>
       <c r="O3" t="n">
-        <v>80.17314072887103</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>76.93382191154292</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>76.93382191154292</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>80.17314072887103</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>80.17314072887103</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>80.17314072887103</v>
       </c>
       <c r="P5" t="n">
-        <v>76.93382191154292</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
-        <v>76.93382191154292</v>
+        <v>80.17314072887103</v>
       </c>
       <c r="L6" t="n">
         <v>80.17314072887103</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>80.17314072887103</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>69.46583115751775</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>80.17314072887103</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>80.17314072887103</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>90.02410328955504</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
         <v>274.2838073416025</v>
@@ -35267,7 +35267,7 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>200.5762321565626</v>
+        <v>8.848537350489996</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>173.7949482977987</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>295.1530050729209</v>
+        <v>195.2037944027423</v>
       </c>
       <c r="M12" t="n">
         <v>384.9782177040799</v>
       </c>
       <c r="N12" t="n">
-        <v>111.2340587361026</v>
+        <v>384.9782177040799</v>
       </c>
       <c r="O12" t="n">
         <v>319.4242831270052</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>48.31329236197755</v>
+        <v>48.31329236197752</v>
       </c>
       <c r="K13" t="n">
         <v>130.2047373393407</v>
       </c>
       <c r="L13" t="n">
-        <v>188.0316690328855</v>
+        <v>188.0316690328854</v>
       </c>
       <c r="M13" t="n">
-        <v>202.1587546527205</v>
+        <v>202.1587546527204</v>
       </c>
       <c r="N13" t="n">
-        <v>205.5169363774874</v>
+        <v>205.5169363774873</v>
       </c>
       <c r="O13" t="n">
         <v>183.8777894337796</v>
@@ -35586,7 +35586,7 @@
         <v>151.9209477122295</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.63487775100143</v>
+        <v>59.6348777510014</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>31.90230582327214</v>
       </c>
       <c r="K14" t="n">
-        <v>227.8737330691683</v>
+        <v>171.3249964393269</v>
       </c>
       <c r="L14" t="n">
-        <v>265.0378259816827</v>
+        <v>390.023132377734</v>
       </c>
       <c r="M14" t="n">
-        <v>310.2716021184376</v>
+        <v>374.0541056196421</v>
       </c>
       <c r="N14" t="n">
         <v>299.6182068860812</v>
@@ -35662,13 +35662,13 @@
         <v>236.3266822846126</v>
       </c>
       <c r="P14" t="n">
-        <v>289.3727498240222</v>
+        <v>164.3874434279709</v>
       </c>
       <c r="Q14" t="n">
         <v>45.48913239214441</v>
       </c>
       <c r="R14" t="n">
-        <v>7.233766871363329</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>26.86144649453654</v>
       </c>
       <c r="K15" t="n">
         <v>173.7949482977987</v>
@@ -35735,16 +35735,16 @@
         <v>397.763164820635</v>
       </c>
       <c r="N15" t="n">
-        <v>179.0163145581117</v>
+        <v>423.8450469631421</v>
       </c>
       <c r="O15" t="n">
         <v>319.4242831270052</v>
       </c>
       <c r="P15" t="n">
-        <v>239.7736824156214</v>
+        <v>76.2841104747459</v>
       </c>
       <c r="Q15" t="n">
-        <v>108.2006069586914</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>48.31329236197756</v>
+        <v>48.3132923619776</v>
       </c>
       <c r="K16" t="n">
-        <v>130.2047373393407</v>
+        <v>130.2047373393408</v>
       </c>
       <c r="L16" t="n">
         <v>188.0316690328855</v>
@@ -35814,7 +35814,7 @@
         <v>202.1587546527205</v>
       </c>
       <c r="N16" t="n">
-        <v>205.5169363774873</v>
+        <v>205.5169363774874</v>
       </c>
       <c r="O16" t="n">
         <v>183.8777894337796</v>
@@ -35823,7 +35823,7 @@
         <v>151.9209477122295</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.63487775100143</v>
+        <v>59.63487775100148</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,13 +35896,13 @@
         <v>299.6182068860812</v>
       </c>
       <c r="O17" t="n">
-        <v>266.5452636702564</v>
+        <v>236.3266822846126</v>
       </c>
       <c r="P17" t="n">
         <v>164.3874434279709</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.48913239214441</v>
+        <v>75.7077137777882</v>
       </c>
       <c r="R17" t="n">
         <v>103.5341617227738</v>
@@ -35972,7 +35972,7 @@
         <v>397.763164820635</v>
       </c>
       <c r="N18" t="n">
-        <v>260.3554750222667</v>
+        <v>152.1548680635752</v>
       </c>
       <c r="O18" t="n">
         <v>319.4242831270052</v>
@@ -35981,7 +35981,7 @@
         <v>239.7736824156214</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>108.2006069586914</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36115,16 +36115,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>30.85195497207896</v>
       </c>
       <c r="J20" t="n">
-        <v>196.5070039037689</v>
+        <v>31.90230582327214</v>
       </c>
       <c r="K20" t="n">
         <v>171.3249964393269</v>
       </c>
       <c r="L20" t="n">
-        <v>265.0378259816827</v>
+        <v>295.2564073673265</v>
       </c>
       <c r="M20" t="n">
         <v>310.2716021184376</v>
@@ -36142,7 +36142,7 @@
         <v>45.48913239214441</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>103.5341617227738</v>
       </c>
       <c r="S20" t="n">
         <v>24.16311181675933</v>
@@ -36355,7 +36355,7 @@
         <v>30.85195497207896</v>
       </c>
       <c r="J23" t="n">
-        <v>62.12088720891602</v>
+        <v>31.90230582327214</v>
       </c>
       <c r="K23" t="n">
         <v>171.3249964393269</v>
@@ -36376,7 +36376,7 @@
         <v>164.3874434279709</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.48913239214441</v>
+        <v>75.70771377778797</v>
       </c>
       <c r="R23" t="n">
         <v>103.5341617227738</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>26.86144649453654</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>173.7949482977987</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>295.1530050729209</v>
+        <v>224.1192209656891</v>
       </c>
       <c r="M24" t="n">
         <v>397.763164820635</v>
@@ -36449,7 +36449,7 @@
         <v>423.8450469631421</v>
       </c>
       <c r="O24" t="n">
-        <v>47.73410422743805</v>
+        <v>319.4242831270052</v>
       </c>
       <c r="P24" t="n">
         <v>239.7736824156214</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>181.5477879961344</v>
+        <v>181.5477879961345</v>
       </c>
       <c r="K26" t="n">
         <v>320.9704786121893</v>
       </c>
       <c r="L26" t="n">
-        <v>414.6833081545449</v>
+        <v>414.683308154545</v>
       </c>
       <c r="M26" t="n">
         <v>459.9170842912999</v>
@@ -36616,7 +36616,7 @@
         <v>195.1346145650067</v>
       </c>
       <c r="R26" t="n">
-        <v>31.89394264817427</v>
+        <v>31.8939426481743</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>72.9734681387885</v>
+        <v>72.97346813878853</v>
       </c>
       <c r="K28" t="n">
-        <v>5.219430943289396</v>
+        <v>14.39960811193564</v>
       </c>
       <c r="L28" t="n">
         <v>212.6918448096964</v>
       </c>
       <c r="M28" t="n">
-        <v>77.17344825666909</v>
+        <v>226.8189304295314</v>
       </c>
       <c r="N28" t="n">
-        <v>230.1771121542983</v>
+        <v>80.53162998143597</v>
       </c>
       <c r="O28" t="n">
-        <v>152.3677137341873</v>
+        <v>58.89248303772823</v>
       </c>
       <c r="P28" t="n">
         <v>26.93564131617812</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>84.2950535278124</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>72.9734681387885</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>154.8649131161517</v>
+        <v>5.219430943289396</v>
       </c>
       <c r="L31" t="n">
-        <v>212.6918448096964</v>
+        <v>63.04636263683413</v>
       </c>
       <c r="M31" t="n">
         <v>77.17344825666909</v>
       </c>
       <c r="N31" t="n">
-        <v>80.53162998143597</v>
+        <v>230.1771121542983</v>
       </c>
       <c r="O31" t="n">
-        <v>152.3677137341873</v>
+        <v>208.5379652105905</v>
       </c>
       <c r="P31" t="n">
-        <v>26.93564131617812</v>
+        <v>176.5811234890404</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>16.80321666238519</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>10.36860540750463</v>
+        <v>10.36860540750474</v>
       </c>
       <c r="J32" t="n">
         <v>31.90230582327214</v>
@@ -37072,16 +37072,16 @@
         <v>171.3249964393269</v>
       </c>
       <c r="L32" t="n">
-        <v>465.8401776645701</v>
+        <v>265.0378259816827</v>
       </c>
       <c r="M32" t="n">
         <v>310.2716021184376</v>
       </c>
       <c r="N32" t="n">
-        <v>462.1746641821279</v>
+        <v>500.4205585689688</v>
       </c>
       <c r="O32" t="n">
-        <v>236.3266822846126</v>
+        <v>437.1290339675002</v>
       </c>
       <c r="P32" t="n">
         <v>164.3874434279709</v>
@@ -37090,10 +37090,10 @@
         <v>45.48913239214441</v>
       </c>
       <c r="R32" t="n">
-        <v>83.05081215819943</v>
+        <v>48.48468002354284</v>
       </c>
       <c r="S32" t="n">
-        <v>3.679762252185</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37212,7 +37212,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>5.821535100081451</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>5.821535100080604</v>
       </c>
       <c r="K34" t="n">
         <v>5.219430943289396</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>10.36860540750471</v>
+        <v>10.36860540750474</v>
       </c>
       <c r="J35" t="n">
         <v>232.7046575061597</v>
       </c>
       <c r="K35" t="n">
-        <v>333.881453735373</v>
+        <v>333.8814537353725</v>
       </c>
       <c r="L35" t="n">
         <v>265.0378259816827</v>
@@ -37327,10 +37327,10 @@
         <v>45.48913239214441</v>
       </c>
       <c r="R35" t="n">
-        <v>83.05081215819952</v>
+        <v>83.05081215819955</v>
       </c>
       <c r="S35" t="n">
-        <v>3.679762252185085</v>
+        <v>3.679762252185114</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>5.821535100080604</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>5.821535100080848</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>10.36860540750466</v>
+        <v>10.36860540750463</v>
       </c>
       <c r="J38" t="n">
         <v>31.90230582327214</v>
@@ -37552,22 +37552,22 @@
         <v>310.2716021184376</v>
       </c>
       <c r="N38" t="n">
-        <v>465.8544264343122</v>
+        <v>299.6182068860812</v>
       </c>
       <c r="O38" t="n">
         <v>236.3266822846126</v>
       </c>
       <c r="P38" t="n">
-        <v>365.1897951108584</v>
+        <v>365.1897951108583</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.48913239214441</v>
+        <v>208.0455896881911</v>
       </c>
       <c r="R38" t="n">
-        <v>83.05081215819946</v>
+        <v>83.05081215819943</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.679762252185</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>5.821535100081451</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>5.821535100081236</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>10.36860540750471</v>
       </c>
       <c r="J41" t="n">
-        <v>31.90230582327214</v>
+        <v>194.4587631193182</v>
       </c>
       <c r="K41" t="n">
         <v>171.3249964393269</v>
@@ -37795,7 +37795,7 @@
         <v>236.3266822846126</v>
       </c>
       <c r="P41" t="n">
-        <v>326.9439007240169</v>
+        <v>164.3874434279709</v>
       </c>
       <c r="Q41" t="n">
         <v>246.2914840750319</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>5.821535100080884</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37926,7 +37926,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>5.821535100080877</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>10.36860540750463</v>
+        <v>10.36860540750466</v>
       </c>
       <c r="J44" t="n">
-        <v>31.90230582327214</v>
+        <v>232.7046575061596</v>
       </c>
       <c r="K44" t="n">
         <v>171.3249964393269</v>
@@ -38026,7 +38026,7 @@
         <v>310.2716021184376</v>
       </c>
       <c r="N44" t="n">
-        <v>462.1746641821279</v>
+        <v>462.1746641821274</v>
       </c>
       <c r="O44" t="n">
         <v>236.3266822846126</v>
@@ -38035,13 +38035,13 @@
         <v>164.3874434279709</v>
       </c>
       <c r="Q44" t="n">
-        <v>246.2914840750319</v>
+        <v>45.48913239214441</v>
       </c>
       <c r="R44" t="n">
-        <v>83.05081215819943</v>
+        <v>83.05081215819946</v>
       </c>
       <c r="S44" t="n">
-        <v>3.679762252185</v>
+        <v>3.679762252185029</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>5.821535100081229</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38196,7 +38196,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.821535100081422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
